--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F5F0B1-F8C0-4488-854A-2FA190248678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3D80A8-24D3-4603-9FC7-B10E35637A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="174">
   <si>
     <t>type</t>
   </si>
@@ -577,19 +577,16 @@
     <t>Doit contenir 2 à 4 caractère alphanumérique</t>
   </si>
   <si>
-    <t>(2023 Avril) - 2. SCH/STH – Enrôlement</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202304_2_child</t>
-  </si>
-  <si>
     <t>p_usp</t>
   </si>
   <si>
     <t>subdistrict_list= ${p_usp}</t>
   </si>
   <si>
-    <t>${p_consent} = 'A.donne' and (${p_usp} = 'AGBATITOE' or ${p_usp} = 'AGOTIME ADAME' or ${p_usp} = 'AKPAKPAKPE' or ${p_usp} = 'ALEHERIDE' or ${p_usp} = 'AOU MONO' or ${p_usp} = 'ASSAHOUN FIAGBE' or ${p_usp} = 'AVASSIKPE' or ${p_usp} = 'AVEDZE' or ${p_usp} = 'AVETONOU' or ${p_usp} = 'BATOUME' or ${p_usp} = 'BROUNFOU' or ${p_usp} = 'CMS HANKELI' or ${p_usp} = 'DALIA' or ${p_usp} = 'DIMORI' or ${p_usp} = 'HOPITAL SAINT GOTHARD DE DEDOME' or ${p_usp} = 'HUILEHOE' or ${p_usp} = 'KADAMBARA' or ${p_usp} = 'KASSENA' or ${p_usp} = 'KATI' or ${p_usp} = 'KLABE APEGAME' or ${p_usp} = 'KLOEGNAME' or ${p_usp} = 'KLONOU' or ${p_usp} = 'KOUNDOUM' or ${p_usp} = 'KPAZA' or ${p_usp} = 'LAMA TESSI' or ${p_usp} = 'OGA' or ${p_usp} = 'PATATOUKOU' or ${p_usp} = 'SAGBADAI' or ${p_usp} = 'SANDA AFOHOU' or ${p_usp} = 'SANDA KAGBANDA' or ${p_usp} = 'TAWOREDA' or ${p_usp} = 'TCHALO' or ${p_usp} = 'TCHATCHAMINADE' or ${p_usp} = 'TETETOU')</t>
+    <t>tg_sch_sth_impact_202309_2_child</t>
+  </si>
+  <si>
+    <t>(2023 Sept) - 2. SCH/STH – Enrôlement</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1078,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8:G10"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1188,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>18</v>
@@ -1231,7 +1228,7 @@
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="17" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1417,7 +1414,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="23"/>
       <c r="H13" s="8" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="9" t="s">
@@ -1609,7 +1606,7 @@
   <dimension ref="A1:G466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -4416,7 +4413,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4438,10 +4435,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
         <v>167</v>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3D80A8-24D3-4603-9FC7-B10E35637A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B392567C-524C-495B-BD61-A9CE73BAC3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="187">
   <si>
     <t>type</t>
   </si>
@@ -307,75 +307,15 @@
     <t>recorders</t>
   </si>
   <si>
-    <t>ABOU KERIM Aguérégna </t>
-  </si>
-  <si>
-    <t>ADABRA Hélène </t>
-  </si>
-  <si>
-    <t>ADJODI Anabédédi Jonas </t>
-  </si>
-  <si>
-    <t>AGBOZO Senyo  </t>
-  </si>
-  <si>
-    <t>AGOSSOU A. Adolphe  </t>
-  </si>
-  <si>
-    <t>AMADOU Moussa </t>
-  </si>
-  <si>
-    <t>ANAGO Espoir  </t>
-  </si>
-  <si>
-    <t>FONVI Akakpo </t>
-  </si>
-  <si>
-    <t>GBOGBATSE Komi Mensa  </t>
-  </si>
-  <si>
-    <t>GNAMEY Judith </t>
-  </si>
-  <si>
     <t>HOUNYOVI Ayaovi</t>
   </si>
   <si>
-    <t>KAMASSA Hélène </t>
-  </si>
-  <si>
-    <t>KANTCHIRE Yendoube Emmanuel </t>
-  </si>
-  <si>
-    <t>KOKAN Faïzat </t>
-  </si>
-  <si>
-    <t>KUTOATI Abla Grâce </t>
-  </si>
-  <si>
-    <t>LARE Soumbako  </t>
-  </si>
-  <si>
-    <t>NAKOME Bamouni  </t>
-  </si>
-  <si>
     <t>NOUSSOUGNON Kokou</t>
   </si>
   <si>
     <t>SOH Atafembou</t>
   </si>
   <si>
-    <t>SOSSOU Efoe Stephane </t>
-  </si>
-  <si>
-    <t>SOTOU Novinyo  </t>
-  </si>
-  <si>
-    <t>TCHAKOU-HOHOE Koffi-Messan </t>
-  </si>
-  <si>
-    <t>YAKPA Kossi Georges </t>
-  </si>
-  <si>
     <t>yesNo</t>
   </si>
   <si>
@@ -583,10 +523,109 @@
     <t>subdistrict_list= ${p_usp}</t>
   </si>
   <si>
-    <t>tg_sch_sth_impact_202309_2_child</t>
-  </si>
-  <si>
-    <t>(2023 Sept) - 2. SCH/STH – Enrôlement</t>
+    <t>ABAYE Elom</t>
+  </si>
+  <si>
+    <t>ABDOU-KERIM Agueregna</t>
+  </si>
+  <si>
+    <t>ADABRA Hélène</t>
+  </si>
+  <si>
+    <t>ADJAGODO Gadiel</t>
+  </si>
+  <si>
+    <t>ADJENDA Eke</t>
+  </si>
+  <si>
+    <t>AFANOU Kokou M</t>
+  </si>
+  <si>
+    <t>AGBOZO Senyo</t>
+  </si>
+  <si>
+    <t>AKOBI  Komi</t>
+  </si>
+  <si>
+    <t>AKUTSA Kafui</t>
+  </si>
+  <si>
+    <t>AWILI Mazama Esso</t>
+  </si>
+  <si>
+    <t>BADJASSEM Gloria Diyane</t>
+  </si>
+  <si>
+    <t>BAKOLTINA Disrama Denise</t>
+  </si>
+  <si>
+    <t>BATEBAWI Raphaël</t>
+  </si>
+  <si>
+    <t>DJAMAH Prosper</t>
+  </si>
+  <si>
+    <t>DJOBO Annissah</t>
+  </si>
+  <si>
+    <t>DOUMONGUE Tibanguebé</t>
+  </si>
+  <si>
+    <t>EKAHOHO Yaovi</t>
+  </si>
+  <si>
+    <t>GBOGBATSE Komi Mensa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNANLABA Pyabalo </t>
+  </si>
+  <si>
+    <t>KOKAN Faïzat</t>
+  </si>
+  <si>
+    <t>KUTOATI Abla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGO Kokou </t>
+  </si>
+  <si>
+    <t>MONTANT Minyo Ega Sossa</t>
+  </si>
+  <si>
+    <t>N’DATO Kossi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAKOME Bamouni </t>
+  </si>
+  <si>
+    <t>PORO Kpatcha Edjareguew</t>
+  </si>
+  <si>
+    <t>SAGOA Djamsa</t>
+  </si>
+  <si>
+    <t>SEDJRO Afantolo</t>
+  </si>
+  <si>
+    <t>SINGO ATTAH</t>
+  </si>
+  <si>
+    <t>SOLI Lontassam</t>
+  </si>
+  <si>
+    <t>SOTOU Novinyo</t>
+  </si>
+  <si>
+    <t>TAGBA Atna Edi</t>
+  </si>
+  <si>
+    <t>TCHAGBELE Wanikougnon</t>
+  </si>
+  <si>
+    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V1.1</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_2_child_v1_1</t>
   </si>
 </sst>
 </file>
@@ -726,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -797,6 +836,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1148,10 +1191,10 @@
       <c r="D2" s="21"/>
       <c r="E2" s="9"/>
       <c r="F2" s="26" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -1188,7 +1231,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>18</v>
@@ -1228,7 +1271,7 @@
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="8" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="17" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1603,11 +1646,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G466"/>
+  <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1645,10 +1688,10 @@
         <v>79</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="15"/>
@@ -1660,10 +1703,10 @@
         <v>79</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="15"/>
@@ -1675,10 +1718,10 @@
         <v>79</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="15"/>
@@ -1690,10 +1733,10 @@
         <v>79</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="15"/>
@@ -1705,10 +1748,10 @@
         <v>79</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="15"/>
@@ -1720,10 +1763,10 @@
         <v>79</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="15"/>
@@ -1735,10 +1778,10 @@
         <v>79</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="15"/>
@@ -1750,10 +1793,10 @@
         <v>79</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="15"/>
@@ -1765,10 +1808,10 @@
         <v>79</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="15"/>
@@ -1780,10 +1823,10 @@
         <v>79</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="15"/>
@@ -1795,10 +1838,10 @@
         <v>79</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="15"/>
@@ -1810,10 +1853,10 @@
         <v>79</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="15"/>
@@ -1825,10 +1868,10 @@
         <v>79</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="15"/>
@@ -1840,10 +1883,10 @@
         <v>79</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="15"/>
@@ -1855,10 +1898,10 @@
         <v>79</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="15"/>
@@ -1870,10 +1913,10 @@
         <v>79</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="15"/>
@@ -1885,10 +1928,10 @@
         <v>79</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="15"/>
@@ -1900,10 +1943,10 @@
         <v>79</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="15"/>
@@ -1915,10 +1958,10 @@
         <v>79</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="15"/>
@@ -1930,10 +1973,10 @@
         <v>79</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="15"/>
@@ -1945,10 +1988,10 @@
         <v>79</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="15"/>
@@ -1960,10 +2003,10 @@
         <v>79</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="15"/>
@@ -1975,10 +2018,10 @@
         <v>79</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="15"/>
@@ -1986,573 +2029,707 @@
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>103</v>
+      <c r="A26" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>104</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>103</v>
+      <c r="A27" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>105</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>107</v>
-      </c>
+      <c r="A29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>108</v>
-      </c>
+      <c r="A30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>111</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="9" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="10" t="s">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="C57" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="10" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="9" t="s">
+      <c r="B58" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C58" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="10" t="s">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="C60" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="10" t="s">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="C61" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="C62" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="10" t="s">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="9" t="s">
+      <c r="C63" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C64" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="B65" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="C65" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="10" t="s">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="C66" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="10" t="s">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="B67" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C67" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="C68" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B46" s="9" t="s">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C69" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B47" s="9" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C70" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="24" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="C71" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>154</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>154</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>154</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>154</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>154</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>154</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="15"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="15"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="15"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="15"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="15"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="15"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="15"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="15"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="15"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="15"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71"/>
-      <c r="C71"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="C72" s="24" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="15"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="15"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="15"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="15"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D80" s="4"/>
+      <c r="E80" s="15"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D81" s="4"/>
+      <c r="E81" s="15"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D82" s="4"/>
+      <c r="E82" s="15"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D83" s="4"/>
+      <c r="E83" s="15"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B84"/>
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="E96" s="4"/>
@@ -2877,85 +3054,85 @@
       <c r="C160" s="4"/>
       <c r="E160" s="4"/>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="E163" s="4"/>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
-      <c r="F165" s="4"/>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
-      <c r="F166" s="4"/>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
-      <c r="F167" s="4"/>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
-      <c r="F168" s="4"/>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
-      <c r="F169" s="4"/>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
-      <c r="F170" s="4"/>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
-      <c r="F171" s="4"/>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
-      <c r="F172" s="4"/>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
-      <c r="F173" s="4"/>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
-      <c r="F174" s="4"/>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
-      <c r="F175" s="4"/>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
-      <c r="F176" s="4"/>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="F177" s="4"/>
+      <c r="E176" s="4"/>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="4"/>
@@ -4401,6 +4578,71 @@
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
       <c r="F466" s="4"/>
+    </row>
+    <row r="467" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B467" s="4"/>
+      <c r="C467" s="4"/>
+      <c r="F467" s="4"/>
+    </row>
+    <row r="468" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B468" s="4"/>
+      <c r="C468" s="4"/>
+      <c r="F468" s="4"/>
+    </row>
+    <row r="469" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B469" s="4"/>
+      <c r="C469" s="4"/>
+      <c r="F469" s="4"/>
+    </row>
+    <row r="470" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B470" s="4"/>
+      <c r="C470" s="4"/>
+      <c r="F470" s="4"/>
+    </row>
+    <row r="471" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B471" s="4"/>
+      <c r="C471" s="4"/>
+      <c r="F471" s="4"/>
+    </row>
+    <row r="472" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B472" s="4"/>
+      <c r="C472" s="4"/>
+      <c r="F472" s="4"/>
+    </row>
+    <row r="473" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B473" s="4"/>
+      <c r="C473" s="4"/>
+      <c r="F473" s="4"/>
+    </row>
+    <row r="474" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B474" s="4"/>
+      <c r="C474" s="4"/>
+      <c r="F474" s="4"/>
+    </row>
+    <row r="475" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B475" s="4"/>
+      <c r="C475" s="4"/>
+      <c r="F475" s="4"/>
+    </row>
+    <row r="476" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B476" s="4"/>
+      <c r="C476" s="4"/>
+      <c r="F476" s="4"/>
+    </row>
+    <row r="477" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B477" s="4"/>
+      <c r="C477" s="4"/>
+      <c r="F477" s="4"/>
+    </row>
+    <row r="478" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B478" s="4"/>
+      <c r="C478" s="4"/>
+      <c r="F478" s="4"/>
+    </row>
+    <row r="479" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B479" s="4"/>
+      <c r="C479" s="4"/>
+      <c r="F479" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4412,8 +4654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4424,24 +4666,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
@@ -8,21 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B392567C-524C-495B-BD61-A9CE73BAC3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC06509-2A0E-487E-B157-3E4BD97CE62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="188">
   <si>
     <t>type</t>
   </si>
@@ -169,24 +182,9 @@
     </r>
   </si>
   <si>
-    <t>p_barcode_ok</t>
-  </si>
-  <si>
-    <t>Le code QR a-t-il été correctement scanné</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
-    <t>p_manual_code_id</t>
-  </si>
-  <si>
-    <t>Saisez le code QR manuellement</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'A.donne' and ${p_barcode_ok} = 'Non'</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -244,12 +242,6 @@
     <t xml:space="preserve">Cette urine est-elle conservée pour la filtration de l’urine? </t>
   </si>
   <si>
-    <t>if((${p_grading}='Trace.hemolysee' or ${p_grading}='+' or ${p_grading}='++' or ${p_grading}='+++' ) and . = 'Non', false(), true()) and if(${p_grading}='Trace.non.hemolysee' and . = 'Oui', false(), true())</t>
-  </si>
-  <si>
-    <t>L'urine ne doit pas être conservée si le résultat du test Hemastix est positif</t>
-  </si>
-  <si>
     <t>${p_consent} = 'A.donne' and ${p_collected_urine} = 'Oui' and ${p_grading} != 'Negatif'</t>
   </si>
   <si>
@@ -622,10 +614,34 @@
     <t>TCHAGBELE Wanikougnon</t>
   </si>
   <si>
-    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V1.1</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202309_2_child_v1_1</t>
+    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V2</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_2_child_v2</t>
+  </si>
+  <si>
+    <t>p_region</t>
+  </si>
+  <si>
+    <t>Sélectionner la région</t>
+  </si>
+  <si>
+    <t>p_barcodeid2</t>
+  </si>
+  <si>
+    <t>Veuillez scanner le QR Code à nouveau</t>
+  </si>
+  <si>
+    <t>. = ${p_barcodeid}</t>
+  </si>
+  <si>
+    <t>Les deux QR code scanné doivent être les mêmes</t>
+  </si>
+  <si>
+    <t>regex(.,'^(MO.?|SOT|TCH|TCH|BAS|AGO|AKE|AMO|DAN|HAH|KLO|KPE|MOY|WAW)_\d{4}$') and (substr(${p_district}, 0, 3) = substr(., 0, 3) or substr(${p_district}, 0, 3) = 'MO')</t>
+  </si>
+  <si>
+    <t>Le format du QR Code est incorect ou vous utiliser le QR Code d'un autre district</t>
   </si>
 </sst>
 </file>
@@ -765,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -840,6 +856,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1117,11 +1136,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="F16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1191,10 +1210,10 @@
       <c r="D2" s="21"/>
       <c r="E2" s="9"/>
       <c r="F2" s="26" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -1209,10 +1228,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
@@ -1231,10 +1250,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
@@ -1246,140 +1265,146 @@
         <v>14</v>
       </c>
       <c r="K4" s="9"/>
-      <c r="L4" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="17" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="L6" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="17" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" s="17" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10"/>
+      <c r="F9" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>187</v>
+      </c>
       <c r="H9" s="9" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="9"/>
-      <c r="J9" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" s="17" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
+      <c r="F10" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="H10" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9" t="s">
@@ -1390,21 +1415,21 @@
     </row>
     <row r="11" spans="1:12" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>32</v>
@@ -1418,13 +1443,13 @@
     </row>
     <row r="12" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
@@ -1445,13 +1470,13 @@
         <v>33</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1471,10 +1496,10 @@
         <v>33</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
@@ -1492,20 +1517,20 @@
     </row>
     <row r="15" spans="1:12" s="17" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="23"/>
       <c r="H15" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="9"/>
@@ -1517,21 +1542,17 @@
         <v>33</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>60</v>
-      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9"/>
@@ -1543,17 +1564,17 @@
         <v>22</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
       <c r="H17" s="8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -1565,17 +1586,17 @@
         <v>22</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
       <c r="H18" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -1584,13 +1605,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
@@ -1604,10 +1625,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="12"/>
@@ -1622,10 +1643,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="12"/>
@@ -1649,8 +1670,8 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39:XFD52"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1683,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -1671,27 +1692,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="15"/>
@@ -1700,13 +1721,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="15"/>
@@ -1715,13 +1736,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="15"/>
@@ -1730,13 +1751,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="15"/>
@@ -1745,13 +1766,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="15"/>
@@ -1760,13 +1781,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="15"/>
@@ -1775,13 +1796,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="15"/>
@@ -1790,13 +1811,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="15"/>
@@ -1805,13 +1826,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="15"/>
@@ -1820,13 +1841,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="15"/>
@@ -1835,13 +1856,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="15"/>
@@ -1850,13 +1871,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="15"/>
@@ -1865,13 +1886,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="15"/>
@@ -1880,13 +1901,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="15"/>
@@ -1895,13 +1916,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="15"/>
@@ -1910,13 +1931,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="15"/>
@@ -1925,13 +1946,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="15"/>
@@ -1940,13 +1961,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="15"/>
@@ -1955,13 +1976,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="15"/>
@@ -1970,13 +1991,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="15"/>
@@ -1985,13 +2006,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="15"/>
@@ -2000,13 +2021,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="15"/>
@@ -2015,13 +2036,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="15"/>
@@ -2030,13 +2051,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
@@ -2045,13 +2066,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
@@ -2060,13 +2081,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="29"/>
@@ -2075,13 +2096,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="29"/>
@@ -2090,13 +2111,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2105,13 +2126,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
@@ -2120,13 +2141,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
@@ -2135,13 +2156,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="29"/>
@@ -2150,13 +2171,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
@@ -2165,13 +2186,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -2180,13 +2201,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="29"/>
@@ -2195,13 +2216,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="29"/>
@@ -2210,13 +2231,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="29"/>
@@ -2234,24 +2255,24 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2261,343 +2282,343 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="C49" s="10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="24" t="s">
-        <v>141</v>
-      </c>
       <c r="C70" s="24" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4654,36 +4675,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="32.125" customWidth="1"/>
+    <col min="2" max="2" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC06509-2A0E-487E-B157-3E4BD97CE62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33539AD-1409-49BB-8435-E32EAB6A439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="189">
   <si>
     <t>type</t>
   </si>
@@ -643,12 +643,15 @@
   <si>
     <t>Le format du QR Code est incorect ou vous utiliser le QR Code d'un autre district</t>
   </si>
+  <si>
+    <t>select_one recorders</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -700,6 +703,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -781,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -857,6 +866,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1140,10 +1152,10 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="F16:G16"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
@@ -1159,7 +1171,7 @@
     <col min="12" max="12" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="17" customFormat="1" ht="37.5">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1197,9 +1209,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>15</v>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="31.5">
+      <c r="A2" s="31" t="s">
+        <v>188</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>12</v>
@@ -1223,7 +1235,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="17" customFormat="1">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +1257,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="17" customFormat="1">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1267,7 +1279,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="17" customFormat="1">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1291,7 +1303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="17" customFormat="1">
       <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1315,7 +1327,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="17" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="17" customFormat="1" ht="169.5" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -1335,7 +1347,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="17" customFormat="1" ht="31.5">
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
@@ -1359,7 +1371,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" s="17" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="17" customFormat="1" ht="173.25">
       <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
@@ -1385,7 +1397,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="17" customFormat="1" ht="31.5">
       <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
@@ -1413,7 +1425,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="17" customFormat="1" ht="31.5">
       <c r="A11" s="9" t="s">
         <v>35</v>
       </c>
@@ -1441,7 +1453,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="17" customFormat="1">
       <c r="A12" s="9" t="s">
         <v>40</v>
       </c>
@@ -1465,7 +1477,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" s="17" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="17" customFormat="1" ht="47.25">
       <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
@@ -1491,7 +1503,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="17" customFormat="1">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -1515,7 +1527,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" s="17" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="17" customFormat="1" ht="47.25">
       <c r="A15" s="9" t="s">
         <v>48</v>
       </c>
@@ -1537,7 +1549,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="17" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="17" customFormat="1" ht="63">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
@@ -1559,7 +1571,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="31.5">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -1581,7 +1593,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="47.25">
       <c r="A18" s="20" t="s">
         <v>22</v>
       </c>
@@ -1603,7 +1615,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="20" t="s">
         <v>34</v>
       </c>
@@ -1623,7 +1635,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="20" t="s">
         <v>63</v>
       </c>
@@ -1641,7 +1653,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="9" t="s">
         <v>65</v>
       </c>
@@ -1674,14 +1686,14 @@
       <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="46.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>67</v>
       </c>
@@ -1704,7 +1716,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="8" t="s">
         <v>72</v>
       </c>
@@ -1719,7 +1731,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="8" t="s">
         <v>72</v>
       </c>
@@ -1734,7 +1746,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>72</v>
       </c>
@@ -1749,7 +1761,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="8" t="s">
         <v>72</v>
       </c>
@@ -1764,7 +1776,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="8" t="s">
         <v>72</v>
       </c>
@@ -1779,7 +1791,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
         <v>72</v>
       </c>
@@ -1794,7 +1806,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>72</v>
       </c>
@@ -1809,7 +1821,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>72</v>
       </c>
@@ -1824,7 +1836,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="8" t="s">
         <v>72</v>
       </c>
@@ -1839,7 +1851,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="8" t="s">
         <v>72</v>
       </c>
@@ -1854,7 +1866,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="8" t="s">
         <v>72</v>
       </c>
@@ -1869,7 +1881,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>72</v>
       </c>
@@ -1884,7 +1896,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="8" t="s">
         <v>72</v>
       </c>
@@ -1899,7 +1911,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="8" t="s">
         <v>72</v>
       </c>
@@ -1914,7 +1926,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="8" t="s">
         <v>72</v>
       </c>
@@ -1929,7 +1941,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="8" t="s">
         <v>72</v>
       </c>
@@ -1944,7 +1956,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="8" t="s">
         <v>72</v>
       </c>
@@ -1959,7 +1971,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="8" t="s">
         <v>72</v>
       </c>
@@ -1974,7 +1986,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="8" t="s">
         <v>72</v>
       </c>
@@ -1989,7 +2001,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="8" t="s">
         <v>72</v>
       </c>
@@ -2004,7 +2016,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="8" t="s">
         <v>72</v>
       </c>
@@ -2019,7 +2031,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="8" t="s">
         <v>72</v>
       </c>
@@ -2034,7 +2046,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="8" t="s">
         <v>72</v>
       </c>
@@ -2049,7 +2061,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="8" t="s">
         <v>72</v>
       </c>
@@ -2064,7 +2076,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="8" t="s">
         <v>72</v>
       </c>
@@ -2079,7 +2091,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="8" t="s">
         <v>72</v>
       </c>
@@ -2094,7 +2106,7 @@
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="8" t="s">
         <v>72</v>
       </c>
@@ -2109,7 +2121,7 @@
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="8" t="s">
         <v>72</v>
       </c>
@@ -2124,7 +2136,7 @@
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="8" t="s">
         <v>72</v>
       </c>
@@ -2139,7 +2151,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="8" t="s">
         <v>72</v>
       </c>
@@ -2154,7 +2166,7 @@
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="8" t="s">
         <v>72</v>
       </c>
@@ -2169,7 +2181,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="8" t="s">
         <v>72</v>
       </c>
@@ -2184,7 +2196,7 @@
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="8" t="s">
         <v>72</v>
       </c>
@@ -2199,7 +2211,7 @@
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="8" t="s">
         <v>72</v>
       </c>
@@ -2214,7 +2226,7 @@
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="8" t="s">
         <v>72</v>
       </c>
@@ -2229,7 +2241,7 @@
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="8" t="s">
         <v>72</v>
       </c>
@@ -2244,7 +2256,7 @@
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2253,7 +2265,7 @@
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="9" t="s">
         <v>76</v>
       </c>
@@ -2264,7 +2276,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="9" t="s">
         <v>76</v>
       </c>
@@ -2275,12 +2287,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="9" t="s">
         <v>79</v>
       </c>
@@ -2291,7 +2303,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="9" t="s">
         <v>79</v>
       </c>
@@ -2302,7 +2314,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="8" t="s">
         <v>82</v>
       </c>
@@ -2313,7 +2325,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="8" t="s">
         <v>82</v>
       </c>
@@ -2324,7 +2336,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="8" t="s">
         <v>86</v>
       </c>
@@ -2335,7 +2347,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="8" t="s">
         <v>86</v>
       </c>
@@ -2346,7 +2358,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="8" t="s">
         <v>86</v>
       </c>
@@ -2357,7 +2369,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="8" t="s">
         <v>86</v>
       </c>
@@ -2368,7 +2380,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="8" t="s">
         <v>86</v>
       </c>
@@ -2379,7 +2391,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="8" t="s">
         <v>86</v>
       </c>
@@ -2390,7 +2402,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="8" t="s">
         <v>98</v>
       </c>
@@ -2401,7 +2413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="8" t="s">
         <v>98</v>
       </c>
@@ -2412,7 +2424,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="8" t="s">
         <v>98</v>
       </c>
@@ -2423,7 +2435,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="8" t="s">
         <v>103</v>
       </c>
@@ -2434,7 +2446,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="8" t="s">
         <v>103</v>
       </c>
@@ -2445,7 +2457,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="8" t="s">
         <v>103</v>
       </c>
@@ -2456,7 +2468,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="8" t="s">
         <v>110</v>
       </c>
@@ -2467,7 +2479,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="8" t="s">
         <v>110</v>
       </c>
@@ -2478,7 +2490,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="8" t="s">
         <v>110</v>
       </c>
@@ -2489,7 +2501,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="8" t="s">
         <v>110</v>
       </c>
@@ -2500,7 +2512,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="8" t="s">
         <v>110</v>
       </c>
@@ -2511,7 +2523,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="8" t="s">
         <v>110</v>
       </c>
@@ -2522,7 +2534,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="8" t="s">
         <v>110</v>
       </c>
@@ -2533,7 +2545,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="14" t="s">
         <v>122</v>
       </c>
@@ -2544,7 +2556,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="14" t="s">
         <v>122</v>
       </c>
@@ -2555,7 +2567,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -2566,7 +2578,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -2577,7 +2589,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>127</v>
       </c>
@@ -2588,7 +2600,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>127</v>
       </c>
@@ -2599,7 +2611,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -2610,7 +2622,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>127</v>
       </c>
@@ -2621,2046 +2633,2046 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="11"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="15"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="11"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="15"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="11"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="15"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="11"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="15"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="11"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="15"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="11"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="15"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="11"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="15"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="11"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="15"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="11"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="15"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="11"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="15"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="B84"/>
       <c r="C84"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="E112" s="4"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="E113" s="4"/>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5">
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="E114" s="4"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5">
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="E115" s="4"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5">
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5">
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5">
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="E118" s="4"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5">
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="E119" s="4"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5">
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="E120" s="4"/>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5">
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5">
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5">
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5">
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5">
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="E125" s="4"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5">
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5">
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="E127" s="4"/>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5">
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="E128" s="4"/>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5">
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="E129" s="4"/>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5">
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="E130" s="4"/>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5">
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="E131" s="4"/>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="E132" s="4"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5">
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="E133" s="4"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5">
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="E134" s="4"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="E135" s="4"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5">
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="E136" s="4"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="E137" s="4"/>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="E139" s="4"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="E140" s="4"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5">
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5">
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5">
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="E148" s="4"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="E149" s="4"/>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5">
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5">
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="E151" s="4"/>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5">
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="E154" s="4"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5">
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5">
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5">
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="E157" s="4"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5">
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5">
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5">
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="E160" s="4"/>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5">
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5">
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5">
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="E163" s="4"/>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5">
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="E164" s="4"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5">
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5">
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5">
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5">
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="E168" s="4"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5">
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="E169" s="4"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5">
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5">
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="E171" s="4"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5">
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="E172" s="4"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5">
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5">
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5">
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5">
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="E176" s="4"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6">
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="F178" s="4"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:6">
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="F179" s="4"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6">
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6">
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6">
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:6">
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:6">
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:6">
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:6">
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:6">
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="F187" s="4"/>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:6">
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:6">
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:6">
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:6">
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="F191" s="4"/>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:6">
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6">
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:6">
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:6">
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6">
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="F196" s="4"/>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:6">
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="F197" s="4"/>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:6">
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:6">
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:6">
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:6">
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:6">
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="F202" s="4"/>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:6">
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:6">
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:6">
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:6">
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="F206" s="4"/>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:6">
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:6">
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6">
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="F209" s="4"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:6">
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="F210" s="4"/>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:6">
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:6">
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:6">
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:6">
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:6">
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:6">
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="F216" s="4"/>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:6">
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:6">
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:6">
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:6">
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:6">
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:6">
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:6">
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="F223" s="4"/>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:6">
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="F224" s="4"/>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:6">
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:6">
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:6">
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:6">
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:6">
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="F229" s="4"/>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:6">
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="F230" s="4"/>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:6">
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:6">
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:6">
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="F233" s="4"/>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:6">
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:6">
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="F235" s="4"/>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:6">
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:6">
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:6">
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:6">
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="F239" s="4"/>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:6">
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:6">
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:6">
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:6">
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:6">
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="F244" s="4"/>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:6">
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:6">
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:6">
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:6">
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:6">
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:6">
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:6">
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="F251" s="4"/>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:6">
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="F252" s="4"/>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:6">
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="F253" s="4"/>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:6">
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:6">
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:6">
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:6">
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="F257" s="4"/>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:6">
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="F258" s="4"/>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:6">
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:6">
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:6">
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:6">
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="F262" s="4"/>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:6">
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="F263" s="4"/>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:6">
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="F264" s="4"/>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:6">
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="F265" s="4"/>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:6">
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="F266" s="4"/>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:6">
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="F267" s="4"/>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:6">
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="F268" s="4"/>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:6">
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="F269" s="4"/>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:6">
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="F270" s="4"/>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:6">
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="F271" s="4"/>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:6">
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="F272" s="4"/>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:6">
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="F273" s="4"/>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:6">
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:6">
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="F275" s="4"/>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:6">
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="F276" s="4"/>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:6">
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="F277" s="4"/>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:6">
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="F278" s="4"/>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:6">
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:6">
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:6">
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:6">
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="F282" s="4"/>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:6">
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="F283" s="4"/>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:6">
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="F284" s="4"/>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:6">
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:6">
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="F286" s="4"/>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:6">
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="F287" s="4"/>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:6">
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="F288" s="4"/>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:6">
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="F289" s="4"/>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:6">
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="F290" s="4"/>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:6">
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="F291" s="4"/>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:6">
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="F292" s="4"/>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:6">
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="F293" s="4"/>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:6">
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="F294" s="4"/>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:6">
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="F295" s="4"/>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:6">
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="F296" s="4"/>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:6">
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="F297" s="4"/>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:6">
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="F298" s="4"/>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:6">
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="F299" s="4"/>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:6">
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="F300" s="4"/>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:6">
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="F301" s="4"/>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:6">
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="F302" s="4"/>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:6">
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="F303" s="4"/>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:6">
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="F304" s="4"/>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:6">
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="F305" s="4"/>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:6">
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="F306" s="4"/>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:6">
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="F307" s="4"/>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:6">
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="F308" s="4"/>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:6">
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="F309" s="4"/>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:6">
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="F310" s="4"/>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:6">
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="F311" s="4"/>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:6">
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="F312" s="4"/>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:6">
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="F313" s="4"/>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:6">
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="F314" s="4"/>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:6">
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="F315" s="4"/>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:6">
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="F316" s="4"/>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:6">
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
       <c r="F317" s="4"/>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:6">
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
       <c r="F318" s="4"/>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:6">
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
       <c r="F319" s="4"/>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:6">
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
       <c r="F320" s="4"/>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:6">
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="F321" s="4"/>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:6">
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
       <c r="F322" s="4"/>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:6">
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
       <c r="F323" s="4"/>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:6">
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
       <c r="F324" s="4"/>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:6">
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
       <c r="F325" s="4"/>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:6">
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
       <c r="F326" s="4"/>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:6">
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
       <c r="F327" s="4"/>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:6">
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
       <c r="F328" s="4"/>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:6">
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
       <c r="F329" s="4"/>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:6">
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
       <c r="F330" s="4"/>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:6">
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
       <c r="F331" s="4"/>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:6">
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
       <c r="F332" s="4"/>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:6">
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
       <c r="F333" s="4"/>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:6">
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
       <c r="F334" s="4"/>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:6">
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
       <c r="F335" s="4"/>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:6">
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
       <c r="F336" s="4"/>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:6">
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
       <c r="F337" s="4"/>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:6">
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
       <c r="F338" s="4"/>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:6">
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
       <c r="F339" s="4"/>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:6">
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
       <c r="F340" s="4"/>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:6">
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
       <c r="F341" s="4"/>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:6">
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
       <c r="F342" s="4"/>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:6">
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
       <c r="F343" s="4"/>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:6">
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
       <c r="F344" s="4"/>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:6">
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
       <c r="F345" s="4"/>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:6">
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
       <c r="F346" s="4"/>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:6">
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
       <c r="F347" s="4"/>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:6">
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
       <c r="F348" s="4"/>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:6">
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
       <c r="F349" s="4"/>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:6">
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
       <c r="F350" s="4"/>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:6">
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
       <c r="F351" s="4"/>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:6">
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
       <c r="F352" s="4"/>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:6">
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
       <c r="F353" s="4"/>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:6">
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
       <c r="F354" s="4"/>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:6">
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:6">
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
       <c r="F356" s="4"/>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:6">
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
       <c r="F357" s="4"/>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:6">
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
       <c r="F358" s="4"/>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:6">
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:6">
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
       <c r="F360" s="4"/>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:6">
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:6">
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:6">
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:6">
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
       <c r="F364" s="4"/>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:6">
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
       <c r="F365" s="4"/>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:6">
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
       <c r="F366" s="4"/>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:6">
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
       <c r="F367" s="4"/>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:6">
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
       <c r="F368" s="4"/>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:6">
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
       <c r="F369" s="4"/>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:6">
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
       <c r="F370" s="4"/>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:6">
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
       <c r="F371" s="4"/>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:6">
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
       <c r="F372" s="4"/>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:6">
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
       <c r="F373" s="4"/>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:6">
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
       <c r="F374" s="4"/>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:6">
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
       <c r="F375" s="4"/>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:6">
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
       <c r="F376" s="4"/>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:6">
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
       <c r="F377" s="4"/>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:6">
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
       <c r="F378" s="4"/>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:6">
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
       <c r="F379" s="4"/>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:6">
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
       <c r="F380" s="4"/>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:6">
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
       <c r="F381" s="4"/>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:6">
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
       <c r="F382" s="4"/>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:6">
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
       <c r="F383" s="4"/>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:6">
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
       <c r="F384" s="4"/>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:6">
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
       <c r="F385" s="4"/>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:6">
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
       <c r="F386" s="4"/>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:6">
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
       <c r="F387" s="4"/>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:6">
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
       <c r="F388" s="4"/>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:6">
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
       <c r="F389" s="4"/>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:6">
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
       <c r="F390" s="4"/>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:6">
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
       <c r="F391" s="4"/>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:6">
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
       <c r="F392" s="4"/>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:6">
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
       <c r="F393" s="4"/>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:6">
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
       <c r="F394" s="4"/>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:6">
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
       <c r="F395" s="4"/>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:6">
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
       <c r="F396" s="4"/>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:6">
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
       <c r="F397" s="4"/>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:6">
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
       <c r="F398" s="4"/>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:6">
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
       <c r="F399" s="4"/>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:6">
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
       <c r="F400" s="4"/>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:6">
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
       <c r="F401" s="4"/>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:6">
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
       <c r="F402" s="4"/>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:6">
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
       <c r="F403" s="4"/>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:6">
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
       <c r="F404" s="4"/>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:6">
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
       <c r="F405" s="4"/>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:6">
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
       <c r="F406" s="4"/>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:6">
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
       <c r="F407" s="4"/>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:6">
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
       <c r="F408" s="4"/>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:6">
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
       <c r="F409" s="4"/>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:6">
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
       <c r="F410" s="4"/>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:6">
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
       <c r="F411" s="4"/>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:6">
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
       <c r="F412" s="4"/>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:6">
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
       <c r="F413" s="4"/>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:6">
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
       <c r="F414" s="4"/>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:6">
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
       <c r="F415" s="4"/>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:6">
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
       <c r="F416" s="4"/>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:6">
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
       <c r="F417" s="4"/>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:6">
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
       <c r="F418" s="4"/>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:6">
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
       <c r="F419" s="4"/>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:6">
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
       <c r="F420" s="4"/>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:6">
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
       <c r="F421" s="4"/>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:6">
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
       <c r="F422" s="4"/>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:6">
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
       <c r="F423" s="4"/>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:6">
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
       <c r="F424" s="4"/>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:6">
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
       <c r="F425" s="4"/>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:6">
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
       <c r="F426" s="4"/>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:6">
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
       <c r="F427" s="4"/>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:6">
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
       <c r="F428" s="4"/>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:6">
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
       <c r="F429" s="4"/>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:6">
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
       <c r="F430" s="4"/>
     </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:6">
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
       <c r="F431" s="4"/>
     </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:6">
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
       <c r="F432" s="4"/>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:6">
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
       <c r="F433" s="4"/>
     </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:6">
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
       <c r="F434" s="4"/>
     </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:6">
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
       <c r="F435" s="4"/>
     </row>
-    <row r="436" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:6">
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
       <c r="F436" s="4"/>
     </row>
-    <row r="437" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:6">
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
       <c r="F437" s="4"/>
     </row>
-    <row r="438" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:6">
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
       <c r="F438" s="4"/>
     </row>
-    <row r="439" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:6">
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
       <c r="F439" s="4"/>
     </row>
-    <row r="440" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:6">
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
       <c r="F440" s="4"/>
     </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:6">
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
       <c r="F441" s="4"/>
     </row>
-    <row r="442" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:6">
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
       <c r="F442" s="4"/>
     </row>
-    <row r="443" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:6">
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
       <c r="F443" s="4"/>
     </row>
-    <row r="444" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:6">
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
       <c r="F444" s="4"/>
     </row>
-    <row r="445" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:6">
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
       <c r="F445" s="4"/>
     </row>
-    <row r="446" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:6">
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
       <c r="F446" s="4"/>
     </row>
-    <row r="447" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:6">
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
       <c r="F447" s="4"/>
     </row>
-    <row r="448" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:6">
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
       <c r="F448" s="4"/>
     </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:6">
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
       <c r="F449" s="4"/>
     </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:6">
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
       <c r="F450" s="4"/>
     </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:6">
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
       <c r="F451" s="4"/>
     </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:6">
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
       <c r="F452" s="4"/>
     </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:6">
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
       <c r="F453" s="4"/>
     </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:6">
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
       <c r="F454" s="4"/>
     </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:6">
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
       <c r="F455" s="4"/>
     </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:6">
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
       <c r="F456" s="4"/>
     </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:6">
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
       <c r="F457" s="4"/>
     </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:6">
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
       <c r="F458" s="4"/>
     </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:6">
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
       <c r="F459" s="4"/>
     </row>
-    <row r="460" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:6">
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
       <c r="F460" s="4"/>
     </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:6">
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
       <c r="F461" s="4"/>
     </row>
-    <row r="462" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:6">
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
       <c r="F462" s="4"/>
     </row>
-    <row r="463" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:6">
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
       <c r="F463" s="4"/>
     </row>
-    <row r="464" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:6">
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
       <c r="F464" s="4"/>
     </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:6">
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
       <c r="F465" s="4"/>
     </row>
-    <row r="466" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:6">
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
       <c r="F466" s="4"/>
     </row>
-    <row r="467" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:6">
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
       <c r="F467" s="4"/>
     </row>
-    <row r="468" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:6">
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
       <c r="F468" s="4"/>
     </row>
-    <row r="469" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:6">
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
       <c r="F469" s="4"/>
     </row>
-    <row r="470" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:6">
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
       <c r="F470" s="4"/>
     </row>
-    <row r="471" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:6">
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
       <c r="F471" s="4"/>
     </row>
-    <row r="472" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:6">
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
       <c r="F472" s="4"/>
     </row>
-    <row r="473" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:6">
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
       <c r="F473" s="4"/>
     </row>
-    <row r="474" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:6">
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
       <c r="F474" s="4"/>
     </row>
-    <row r="475" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:6">
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
       <c r="F475" s="4"/>
     </row>
-    <row r="476" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:6">
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
       <c r="F476" s="4"/>
     </row>
-    <row r="477" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:6">
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
       <c r="F477" s="4"/>
     </row>
-    <row r="478" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:6">
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
       <c r="F478" s="4"/>
     </row>
-    <row r="479" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:6">
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
       <c r="F479" s="4"/>
@@ -4679,13 +4691,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="44.125" customWidth="1"/>
     <col min="2" max="2" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>137</v>
       </c>
@@ -4696,7 +4708,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>178</v>
       </c>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33539AD-1409-49BB-8435-E32EAB6A439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B3655C-0738-4A62-B826-CA42EA3A89F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="187">
   <si>
     <t>type</t>
   </si>
@@ -503,12 +503,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>regex(.,'^[a-zA-Z]{2,4}$')</t>
-  </si>
-  <si>
-    <t>Doit contenir 2 à 4 caractère alphanumérique</t>
-  </si>
-  <si>
     <t>p_usp</t>
   </si>
   <si>
@@ -584,9 +578,6 @@
     <t>MONTANT Minyo Ega Sossa</t>
   </si>
   <si>
-    <t>N’DATO Kossi</t>
-  </si>
-  <si>
     <t xml:space="preserve">NAKOME Bamouni </t>
   </si>
   <si>
@@ -645,6 +636,9 @@
   </si>
   <si>
     <t>select_one recorders</t>
+  </si>
+  <si>
+    <t>NDATO Kossi</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1146,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1209,9 +1203,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="31.5">
+    <row r="2" spans="1:12" s="5" customFormat="1">
       <c r="A2" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>12</v>
@@ -1221,12 +1215,8 @@
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>142</v>
-      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
@@ -1240,10 +1230,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
@@ -1284,7 +1274,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>18</v>
@@ -1324,7 +1314,7 @@
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="17" customFormat="1" ht="169.5" customHeight="1">
@@ -1384,10 +1374,10 @@
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
       <c r="F9" s="26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>32</v>
@@ -1402,18 +1392,18 @@
         <v>29</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="9"/>
       <c r="F10" s="26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>32</v>
@@ -1683,7 +1673,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1721,10 +1711,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="15"/>
@@ -1736,10 +1726,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="15"/>
@@ -1751,10 +1741,10 @@
         <v>72</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="15"/>
@@ -1766,10 +1756,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="15"/>
@@ -1781,10 +1771,10 @@
         <v>72</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="15"/>
@@ -1796,10 +1786,10 @@
         <v>72</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="15"/>
@@ -1811,10 +1801,10 @@
         <v>72</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="15"/>
@@ -1826,10 +1816,10 @@
         <v>72</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="15"/>
@@ -1841,10 +1831,10 @@
         <v>72</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="15"/>
@@ -1856,10 +1846,10 @@
         <v>72</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="15"/>
@@ -1871,10 +1861,10 @@
         <v>72</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="15"/>
@@ -1886,10 +1876,10 @@
         <v>72</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="15"/>
@@ -1901,10 +1891,10 @@
         <v>72</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="15"/>
@@ -1916,10 +1906,10 @@
         <v>72</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="15"/>
@@ -1931,10 +1921,10 @@
         <v>72</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="15"/>
@@ -1946,10 +1936,10 @@
         <v>72</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="15"/>
@@ -1961,10 +1951,10 @@
         <v>72</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="15"/>
@@ -1976,10 +1966,10 @@
         <v>72</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="15"/>
@@ -1991,10 +1981,10 @@
         <v>72</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="15"/>
@@ -2021,10 +2011,10 @@
         <v>72</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="15"/>
@@ -2036,10 +2026,10 @@
         <v>72</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="15"/>
@@ -2051,10 +2041,10 @@
         <v>72</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="15"/>
@@ -2066,10 +2056,10 @@
         <v>72</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
@@ -2081,10 +2071,10 @@
         <v>72</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
@@ -2096,10 +2086,10 @@
         <v>72</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="29"/>
@@ -2126,10 +2116,10 @@
         <v>72</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2141,10 +2131,10 @@
         <v>72</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
@@ -2156,10 +2146,10 @@
         <v>72</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
@@ -2171,10 +2161,10 @@
         <v>72</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="29"/>
@@ -2201,10 +2191,10 @@
         <v>72</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -2216,10 +2206,10 @@
         <v>72</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="29"/>
@@ -2231,10 +2221,10 @@
         <v>72</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="29"/>
@@ -2246,10 +2236,10 @@
         <v>72</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="29"/>
@@ -4710,10 +4700,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
         <v>140</v>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B3655C-0738-4A62-B826-CA42EA3A89F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252E097F-1B8B-4E60-841B-C8F86AF99954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -605,12 +605,6 @@
     <t>TCHAGBELE Wanikougnon</t>
   </si>
   <si>
-    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V2</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202309_2_child_v2</t>
-  </si>
-  <si>
     <t>p_region</t>
   </si>
   <si>
@@ -639,6 +633,12 @@
   </si>
   <si>
     <t>NDATO Kossi</t>
+  </si>
+  <si>
+    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V2.1</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_2_child_v2_1</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1">
       <c r="A2" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>12</v>
@@ -1230,10 +1230,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
@@ -1374,10 +1374,10 @@
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
       <c r="F9" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>32</v>
@@ -1392,18 +1392,18 @@
         <v>29</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="9"/>
       <c r="F10" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>32</v>
@@ -2071,10 +2071,10 @@
         <v>72</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
@@ -4677,8 +4677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4700,10 +4700,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
         <v>140</v>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252E097F-1B8B-4E60-841B-C8F86AF99954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5381CF-6E14-4DA0-B77B-ABE7C0313A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="189">
   <si>
     <t>type</t>
   </si>
@@ -635,10 +635,16 @@
     <t>NDATO Kossi</t>
   </si>
   <si>
-    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V2.1</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202309_2_child_v2_1</t>
+    <t>Le résultat est positif, l'urine doit être conservé.</t>
+  </si>
+  <si>
+    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V2.2</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_2_child_v2_2</t>
+  </si>
+  <si>
+    <t>if((${p_grading} = '+' or ${p_grading} = '++' or ${p_grading} = '+++' or ${p_grading} = 'Trace.hemolysee'), . = 'Oui', true())</t>
   </si>
 </sst>
 </file>
@@ -1142,17 +1148,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:G2"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="47.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="47.375" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
@@ -1551,8 +1557,12 @@
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="23"/>
+      <c r="F16" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>185</v>
+      </c>
       <c r="H16" s="9" t="s">
         <v>54</v>
       </c>
@@ -1672,8 +1682,8 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4677,8 +4687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4700,10 +4710,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>140</v>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5381CF-6E14-4DA0-B77B-ABE7C0313A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB1F13A-9D40-4E5E-BD4C-3F2F72AD2FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -638,13 +638,13 @@
     <t>Le résultat est positif, l'urine doit être conservé.</t>
   </si>
   <si>
-    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V2.2</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202309_2_child_v2_2</t>
-  </si>
-  <si>
     <t>if((${p_grading} = '+' or ${p_grading} = '++' or ${p_grading} = '+++' or ${p_grading} = 'Trace.hemolysee'), . = 'Oui', true())</t>
+  </si>
+  <si>
+    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V2.3</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_2_child_v2_3</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1558,7 +1558,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G16" s="23" t="s">
         <v>185</v>
@@ -4687,7 +4687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4710,10 +4710,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
         <v>140</v>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB1F13A-9D40-4E5E-BD4C-3F2F72AD2FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8214D843-6E44-4384-A76E-0288D0A398E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="194">
   <si>
     <t>type</t>
   </si>
@@ -239,9 +239,6 @@
     <t>p_urine_conserve</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette urine est-elle conservée pour la filtration de l’urine? </t>
-  </si>
-  <si>
     <t>${p_consent} = 'A.donne' and ${p_collected_urine} = 'Oui' and ${p_grading} != 'Negatif'</t>
   </si>
   <si>
@@ -605,12 +602,6 @@
     <t>TCHAGBELE Wanikougnon</t>
   </si>
   <si>
-    <t>p_region</t>
-  </si>
-  <si>
-    <t>Sélectionner la région</t>
-  </si>
-  <si>
     <t>p_barcodeid2</t>
   </si>
   <si>
@@ -641,17 +632,41 @@
     <t>if((${p_grading} = '+' or ${p_grading} = '++' or ${p_grading} = '+++' or ${p_grading} = 'Trace.hemolysee'), . = 'Oui', true())</t>
   </si>
   <si>
-    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V2.3</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202309_2_child_v2_3</t>
+    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V3</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_2_child_v3</t>
+  </si>
+  <si>
+    <t>select_one yesNo</t>
+  </si>
+  <si>
+    <t>p_control</t>
+  </si>
+  <si>
+    <t>La bandelette est-elle retenue pour le contrôle qualité</t>
+  </si>
+  <si>
+    <t>p_grading2</t>
+  </si>
+  <si>
+    <t>Contrôle de Graduation de la microhématurie</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'A.donne'  and ${p_collected_urine} = 'Oui' and ${p_control} = 'Oui'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'urine  est-elle conservée pour la filtration de l’urine? </t>
+  </si>
+  <si>
+    <t>Il s'agit de l'urine de bandellete et/ou de l'urine macroscopiquement positive.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -708,10 +723,17 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -736,8 +758,14 @@
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -786,11 +814,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -870,6 +913,25 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1146,16 +1208,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="4" customWidth="1"/>
@@ -1171,7 +1233,7 @@
     <col min="12" max="12" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" ht="37.5">
+    <row r="1" spans="1:12" s="17" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1209,9 +1271,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1">
+    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>12</v>
@@ -1231,15 +1293,15 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="17" customFormat="1">
+    <row r="3" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
@@ -1253,15 +1315,15 @@
       <c r="K3" s="9"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" s="17" customFormat="1">
+    <row r="4" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
@@ -1273,172 +1335,174 @@
         <v>14</v>
       </c>
       <c r="K4" s="9"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="17" customFormat="1">
+      <c r="L4" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="17" customFormat="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="17" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="17" customFormat="1" ht="169.5" customHeight="1">
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" s="17" customFormat="1" ht="31.5">
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" s="17" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" s="17" customFormat="1" ht="173.25">
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
       <c r="F9" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>182</v>
+        <v>176</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" s="17" customFormat="1" ht="31.5">
+    <row r="10" spans="1:12" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="26" t="s">
-        <v>179</v>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" s="17" customFormat="1" ht="31.5">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="9" t="s">
         <v>32</v>
       </c>
@@ -1449,21 +1513,23 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="17" customFormat="1">
+    <row r="12" spans="1:12" s="17" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>32</v>
       </c>
       <c r="I12" s="8"/>
@@ -1473,23 +1539,21 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" s="17" customFormat="1" ht="47.25">
+    <row r="13" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>45</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D13" s="10"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="9" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="8"/>
@@ -1499,53 +1563,51 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" s="17" customFormat="1">
+    <row r="14" spans="1:12" s="17" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="23"/>
       <c r="H14" s="9" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="J14" s="9"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" s="17" customFormat="1" ht="47.25">
-      <c r="A15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" s="17" customFormat="1" ht="63">
+    <row r="15" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+    </row>
+    <row r="16" spans="1:12" s="17" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
@@ -1553,96 +1615,106 @@
         <v>52</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="10"/>
+        <v>192</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
+      <c r="J16" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="31.5">
-      <c r="A17" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" ht="47.25">
+    <row r="17" spans="1:12" s="17" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
       <c r="H18" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="22"/>
+        <v>60</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -1653,12 +1725,12 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="9" t="s">
-        <v>65</v>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="12"/>
@@ -1670,6 +1742,24 @@
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1682,20 +1772,20 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="46.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -1704,559 +1794,559 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="B2" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="15"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="15"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="15"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="15"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="15"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="15"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="15"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="C21" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="15"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="15"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="15"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="29"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="29"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="29"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="29"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="29"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="29"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2265,2414 +2355,2414 @@
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="C39" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="C42" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="13" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="B44" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="C45" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="B46" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="C47" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="10" t="s">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="10" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="C49" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="10" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="10" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="C51" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="B52" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="9" t="s">
+      <c r="C53" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C53" s="10" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="10" t="s">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="10" t="s">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="9" t="s">
+      <c r="C57" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="10" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="C58" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="10" t="s">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="10" t="s">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="9" t="s">
+      <c r="C61" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="10" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B62" s="9" t="s">
+      <c r="C62" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="10" t="s">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="C63" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64" s="9" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="B65" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" s="5" t="s">
+      <c r="B66" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="5" t="s">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
+      <c r="B67" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="5" t="s">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C68" s="5" t="s">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="5" t="s">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="24" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="24" t="s">
+      <c r="C70" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C71" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>127</v>
-      </c>
-      <c r="B71" s="24" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C72" s="24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>127</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="15"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="15"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="15"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="15"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="15"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="15"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="15"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="15"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="15"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="15"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84"/>
       <c r="C84"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="2:5">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="2:5">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="2:5">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="2:5">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="2:5">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="2:5">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="2:5">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="2:5">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="2:5">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="2:5">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="2:5">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="2:5">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="2:5">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="2:5">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="2:5">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="2:5">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="E112" s="4"/>
     </row>
-    <row r="113" spans="2:5">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="E113" s="4"/>
     </row>
-    <row r="114" spans="2:5">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="E114" s="4"/>
     </row>
-    <row r="115" spans="2:5">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="E115" s="4"/>
     </row>
-    <row r="116" spans="2:5">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="2:5">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="2:5">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="E118" s="4"/>
     </row>
-    <row r="119" spans="2:5">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="E119" s="4"/>
     </row>
-    <row r="120" spans="2:5">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="E120" s="4"/>
     </row>
-    <row r="121" spans="2:5">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="2:5">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="2:5">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="2:5">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="2:5">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="E125" s="4"/>
     </row>
-    <row r="126" spans="2:5">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="2:5">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="E127" s="4"/>
     </row>
-    <row r="128" spans="2:5">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="E128" s="4"/>
     </row>
-    <row r="129" spans="2:5">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="E129" s="4"/>
     </row>
-    <row r="130" spans="2:5">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="E130" s="4"/>
     </row>
-    <row r="131" spans="2:5">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="E131" s="4"/>
     </row>
-    <row r="132" spans="2:5">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="E132" s="4"/>
     </row>
-    <row r="133" spans="2:5">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="E133" s="4"/>
     </row>
-    <row r="134" spans="2:5">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="E134" s="4"/>
     </row>
-    <row r="135" spans="2:5">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="E135" s="4"/>
     </row>
-    <row r="136" spans="2:5">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="E136" s="4"/>
     </row>
-    <row r="137" spans="2:5">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="E137" s="4"/>
     </row>
-    <row r="138" spans="2:5">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="2:5">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="E139" s="4"/>
     </row>
-    <row r="140" spans="2:5">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="E140" s="4"/>
     </row>
-    <row r="141" spans="2:5">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="2:5">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="2:5">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="2:5">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="2:5">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="2:5">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="2:5">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="2:5">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="E148" s="4"/>
     </row>
-    <row r="149" spans="2:5">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="E149" s="4"/>
     </row>
-    <row r="150" spans="2:5">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="2:5">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="E151" s="4"/>
     </row>
-    <row r="152" spans="2:5">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="2:5">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="2:5">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="E154" s="4"/>
     </row>
-    <row r="155" spans="2:5">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="2:5">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="2:5">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="E157" s="4"/>
     </row>
-    <row r="158" spans="2:5">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="2:5">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="2:5">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="E160" s="4"/>
     </row>
-    <row r="161" spans="2:5">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="2:5">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="2:5">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="E163" s="4"/>
     </row>
-    <row r="164" spans="2:5">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="E164" s="4"/>
     </row>
-    <row r="165" spans="2:5">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="2:5">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="2:5">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="2:5">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="E168" s="4"/>
     </row>
-    <row r="169" spans="2:5">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="E169" s="4"/>
     </row>
-    <row r="170" spans="2:5">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="2:5">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="E171" s="4"/>
     </row>
-    <row r="172" spans="2:5">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="E172" s="4"/>
     </row>
-    <row r="173" spans="2:5">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="2:5">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="2:5">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="2:5">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="E176" s="4"/>
     </row>
-    <row r="178" spans="2:6">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="F178" s="4"/>
     </row>
-    <row r="179" spans="2:6">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="F179" s="4"/>
     </row>
-    <row r="180" spans="2:6">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" spans="2:6">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" spans="2:6">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" spans="2:6">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" spans="2:6">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" spans="2:6">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" spans="2:6">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" spans="2:6">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="F187" s="4"/>
     </row>
-    <row r="188" spans="2:6">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" spans="2:6">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" spans="2:6">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" spans="2:6">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="F191" s="4"/>
     </row>
-    <row r="192" spans="2:6">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" spans="2:6">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" spans="2:6">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" spans="2:6">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" spans="2:6">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="F196" s="4"/>
     </row>
-    <row r="197" spans="2:6">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="F197" s="4"/>
     </row>
-    <row r="198" spans="2:6">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" spans="2:6">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" spans="2:6">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" spans="2:6">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" spans="2:6">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="F202" s="4"/>
     </row>
-    <row r="203" spans="2:6">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" spans="2:6">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" spans="2:6">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" spans="2:6">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="F206" s="4"/>
     </row>
-    <row r="207" spans="2:6">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" spans="2:6">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" spans="2:6">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="F209" s="4"/>
     </row>
-    <row r="210" spans="2:6">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="F210" s="4"/>
     </row>
-    <row r="211" spans="2:6">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" spans="2:6">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" spans="2:6">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" spans="2:6">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" spans="2:6">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" spans="2:6">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="F216" s="4"/>
     </row>
-    <row r="217" spans="2:6">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" spans="2:6">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" spans="2:6">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" spans="2:6">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" spans="2:6">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" spans="2:6">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" spans="2:6">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="F223" s="4"/>
     </row>
-    <row r="224" spans="2:6">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="F224" s="4"/>
     </row>
-    <row r="225" spans="2:6">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" spans="2:6">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" spans="2:6">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" spans="2:6">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" spans="2:6">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="F229" s="4"/>
     </row>
-    <row r="230" spans="2:6">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="F230" s="4"/>
     </row>
-    <row r="231" spans="2:6">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" spans="2:6">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" spans="2:6">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="F233" s="4"/>
     </row>
-    <row r="234" spans="2:6">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" spans="2:6">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="F235" s="4"/>
     </row>
-    <row r="236" spans="2:6">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" spans="2:6">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" spans="2:6">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" spans="2:6">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="F239" s="4"/>
     </row>
-    <row r="240" spans="2:6">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" spans="2:6">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" spans="2:6">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" spans="2:6">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" spans="2:6">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="F244" s="4"/>
     </row>
-    <row r="245" spans="2:6">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" spans="2:6">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" spans="2:6">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" spans="2:6">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" spans="2:6">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" spans="2:6">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" spans="2:6">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="F251" s="4"/>
     </row>
-    <row r="252" spans="2:6">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="F252" s="4"/>
     </row>
-    <row r="253" spans="2:6">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="F253" s="4"/>
     </row>
-    <row r="254" spans="2:6">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" spans="2:6">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" spans="2:6">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" spans="2:6">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="F257" s="4"/>
     </row>
-    <row r="258" spans="2:6">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="F258" s="4"/>
     </row>
-    <row r="259" spans="2:6">
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" spans="2:6">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" spans="2:6">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" spans="2:6">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="F262" s="4"/>
     </row>
-    <row r="263" spans="2:6">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="F263" s="4"/>
     </row>
-    <row r="264" spans="2:6">
+    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="F264" s="4"/>
     </row>
-    <row r="265" spans="2:6">
+    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="F265" s="4"/>
     </row>
-    <row r="266" spans="2:6">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="F266" s="4"/>
     </row>
-    <row r="267" spans="2:6">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="F267" s="4"/>
     </row>
-    <row r="268" spans="2:6">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="F268" s="4"/>
     </row>
-    <row r="269" spans="2:6">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="F269" s="4"/>
     </row>
-    <row r="270" spans="2:6">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="F270" s="4"/>
     </row>
-    <row r="271" spans="2:6">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="F271" s="4"/>
     </row>
-    <row r="272" spans="2:6">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="F272" s="4"/>
     </row>
-    <row r="273" spans="2:6">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="F273" s="4"/>
     </row>
-    <row r="274" spans="2:6">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" spans="2:6">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="F275" s="4"/>
     </row>
-    <row r="276" spans="2:6">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="F276" s="4"/>
     </row>
-    <row r="277" spans="2:6">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="F277" s="4"/>
     </row>
-    <row r="278" spans="2:6">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="F278" s="4"/>
     </row>
-    <row r="279" spans="2:6">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" spans="2:6">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" spans="2:6">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" spans="2:6">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="F282" s="4"/>
     </row>
-    <row r="283" spans="2:6">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="F283" s="4"/>
     </row>
-    <row r="284" spans="2:6">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="F284" s="4"/>
     </row>
-    <row r="285" spans="2:6">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" spans="2:6">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="F286" s="4"/>
     </row>
-    <row r="287" spans="2:6">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="F287" s="4"/>
     </row>
-    <row r="288" spans="2:6">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="F288" s="4"/>
     </row>
-    <row r="289" spans="2:6">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="F289" s="4"/>
     </row>
-    <row r="290" spans="2:6">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="F290" s="4"/>
     </row>
-    <row r="291" spans="2:6">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="F291" s="4"/>
     </row>
-    <row r="292" spans="2:6">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="F292" s="4"/>
     </row>
-    <row r="293" spans="2:6">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="F293" s="4"/>
     </row>
-    <row r="294" spans="2:6">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="F294" s="4"/>
     </row>
-    <row r="295" spans="2:6">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="F295" s="4"/>
     </row>
-    <row r="296" spans="2:6">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="F296" s="4"/>
     </row>
-    <row r="297" spans="2:6">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="F297" s="4"/>
     </row>
-    <row r="298" spans="2:6">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="F298" s="4"/>
     </row>
-    <row r="299" spans="2:6">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="F299" s="4"/>
     </row>
-    <row r="300" spans="2:6">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="F300" s="4"/>
     </row>
-    <row r="301" spans="2:6">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="F301" s="4"/>
     </row>
-    <row r="302" spans="2:6">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="F302" s="4"/>
     </row>
-    <row r="303" spans="2:6">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="F303" s="4"/>
     </row>
-    <row r="304" spans="2:6">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="F304" s="4"/>
     </row>
-    <row r="305" spans="2:6">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="F305" s="4"/>
     </row>
-    <row r="306" spans="2:6">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="F306" s="4"/>
     </row>
-    <row r="307" spans="2:6">
+    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="F307" s="4"/>
     </row>
-    <row r="308" spans="2:6">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="F308" s="4"/>
     </row>
-    <row r="309" spans="2:6">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="F309" s="4"/>
     </row>
-    <row r="310" spans="2:6">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="F310" s="4"/>
     </row>
-    <row r="311" spans="2:6">
+    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="F311" s="4"/>
     </row>
-    <row r="312" spans="2:6">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="F312" s="4"/>
     </row>
-    <row r="313" spans="2:6">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="F313" s="4"/>
     </row>
-    <row r="314" spans="2:6">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="F314" s="4"/>
     </row>
-    <row r="315" spans="2:6">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="F315" s="4"/>
     </row>
-    <row r="316" spans="2:6">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="F316" s="4"/>
     </row>
-    <row r="317" spans="2:6">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
       <c r="F317" s="4"/>
     </row>
-    <row r="318" spans="2:6">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
       <c r="F318" s="4"/>
     </row>
-    <row r="319" spans="2:6">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
       <c r="F319" s="4"/>
     </row>
-    <row r="320" spans="2:6">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
       <c r="F320" s="4"/>
     </row>
-    <row r="321" spans="2:6">
+    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="F321" s="4"/>
     </row>
-    <row r="322" spans="2:6">
+    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
       <c r="F322" s="4"/>
     </row>
-    <row r="323" spans="2:6">
+    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
       <c r="F323" s="4"/>
     </row>
-    <row r="324" spans="2:6">
+    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
       <c r="F324" s="4"/>
     </row>
-    <row r="325" spans="2:6">
+    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
       <c r="F325" s="4"/>
     </row>
-    <row r="326" spans="2:6">
+    <row r="326" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
       <c r="F326" s="4"/>
     </row>
-    <row r="327" spans="2:6">
+    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
       <c r="F327" s="4"/>
     </row>
-    <row r="328" spans="2:6">
+    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
       <c r="F328" s="4"/>
     </row>
-    <row r="329" spans="2:6">
+    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
       <c r="F329" s="4"/>
     </row>
-    <row r="330" spans="2:6">
+    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
       <c r="F330" s="4"/>
     </row>
-    <row r="331" spans="2:6">
+    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
       <c r="F331" s="4"/>
     </row>
-    <row r="332" spans="2:6">
+    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
       <c r="F332" s="4"/>
     </row>
-    <row r="333" spans="2:6">
+    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
       <c r="F333" s="4"/>
     </row>
-    <row r="334" spans="2:6">
+    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
       <c r="F334" s="4"/>
     </row>
-    <row r="335" spans="2:6">
+    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
       <c r="F335" s="4"/>
     </row>
-    <row r="336" spans="2:6">
+    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
       <c r="F336" s="4"/>
     </row>
-    <row r="337" spans="2:6">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
       <c r="F337" s="4"/>
     </row>
-    <row r="338" spans="2:6">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
       <c r="F338" s="4"/>
     </row>
-    <row r="339" spans="2:6">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
       <c r="F339" s="4"/>
     </row>
-    <row r="340" spans="2:6">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
       <c r="F340" s="4"/>
     </row>
-    <row r="341" spans="2:6">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
       <c r="F341" s="4"/>
     </row>
-    <row r="342" spans="2:6">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
       <c r="F342" s="4"/>
     </row>
-    <row r="343" spans="2:6">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
       <c r="F343" s="4"/>
     </row>
-    <row r="344" spans="2:6">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
       <c r="F344" s="4"/>
     </row>
-    <row r="345" spans="2:6">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
       <c r="F345" s="4"/>
     </row>
-    <row r="346" spans="2:6">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
       <c r="F346" s="4"/>
     </row>
-    <row r="347" spans="2:6">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
       <c r="F347" s="4"/>
     </row>
-    <row r="348" spans="2:6">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
       <c r="F348" s="4"/>
     </row>
-    <row r="349" spans="2:6">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
       <c r="F349" s="4"/>
     </row>
-    <row r="350" spans="2:6">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
       <c r="F350" s="4"/>
     </row>
-    <row r="351" spans="2:6">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
       <c r="F351" s="4"/>
     </row>
-    <row r="352" spans="2:6">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
       <c r="F352" s="4"/>
     </row>
-    <row r="353" spans="2:6">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
       <c r="F353" s="4"/>
     </row>
-    <row r="354" spans="2:6">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
       <c r="F354" s="4"/>
     </row>
-    <row r="355" spans="2:6">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" spans="2:6">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
       <c r="F356" s="4"/>
     </row>
-    <row r="357" spans="2:6">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
       <c r="F357" s="4"/>
     </row>
-    <row r="358" spans="2:6">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
       <c r="F358" s="4"/>
     </row>
-    <row r="359" spans="2:6">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" spans="2:6">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
       <c r="F360" s="4"/>
     </row>
-    <row r="361" spans="2:6">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" spans="2:6">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" spans="2:6">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" spans="2:6">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
       <c r="F364" s="4"/>
     </row>
-    <row r="365" spans="2:6">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
       <c r="F365" s="4"/>
     </row>
-    <row r="366" spans="2:6">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
       <c r="F366" s="4"/>
     </row>
-    <row r="367" spans="2:6">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
       <c r="F367" s="4"/>
     </row>
-    <row r="368" spans="2:6">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
       <c r="F368" s="4"/>
     </row>
-    <row r="369" spans="2:6">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
       <c r="F369" s="4"/>
     </row>
-    <row r="370" spans="2:6">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
       <c r="F370" s="4"/>
     </row>
-    <row r="371" spans="2:6">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
       <c r="F371" s="4"/>
     </row>
-    <row r="372" spans="2:6">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
       <c r="F372" s="4"/>
     </row>
-    <row r="373" spans="2:6">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
       <c r="F373" s="4"/>
     </row>
-    <row r="374" spans="2:6">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
       <c r="F374" s="4"/>
     </row>
-    <row r="375" spans="2:6">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
       <c r="F375" s="4"/>
     </row>
-    <row r="376" spans="2:6">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
       <c r="F376" s="4"/>
     </row>
-    <row r="377" spans="2:6">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
       <c r="F377" s="4"/>
     </row>
-    <row r="378" spans="2:6">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
       <c r="F378" s="4"/>
     </row>
-    <row r="379" spans="2:6">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
       <c r="F379" s="4"/>
     </row>
-    <row r="380" spans="2:6">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
       <c r="F380" s="4"/>
     </row>
-    <row r="381" spans="2:6">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
       <c r="F381" s="4"/>
     </row>
-    <row r="382" spans="2:6">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
       <c r="F382" s="4"/>
     </row>
-    <row r="383" spans="2:6">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
       <c r="F383" s="4"/>
     </row>
-    <row r="384" spans="2:6">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
       <c r="F384" s="4"/>
     </row>
-    <row r="385" spans="2:6">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
       <c r="F385" s="4"/>
     </row>
-    <row r="386" spans="2:6">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
       <c r="F386" s="4"/>
     </row>
-    <row r="387" spans="2:6">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
       <c r="F387" s="4"/>
     </row>
-    <row r="388" spans="2:6">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
       <c r="F388" s="4"/>
     </row>
-    <row r="389" spans="2:6">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
       <c r="F389" s="4"/>
     </row>
-    <row r="390" spans="2:6">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
       <c r="F390" s="4"/>
     </row>
-    <row r="391" spans="2:6">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
       <c r="F391" s="4"/>
     </row>
-    <row r="392" spans="2:6">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
       <c r="F392" s="4"/>
     </row>
-    <row r="393" spans="2:6">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
       <c r="F393" s="4"/>
     </row>
-    <row r="394" spans="2:6">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
       <c r="F394" s="4"/>
     </row>
-    <row r="395" spans="2:6">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
       <c r="F395" s="4"/>
     </row>
-    <row r="396" spans="2:6">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
       <c r="F396" s="4"/>
     </row>
-    <row r="397" spans="2:6">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
       <c r="F397" s="4"/>
     </row>
-    <row r="398" spans="2:6">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
       <c r="F398" s="4"/>
     </row>
-    <row r="399" spans="2:6">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
       <c r="F399" s="4"/>
     </row>
-    <row r="400" spans="2:6">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
       <c r="F400" s="4"/>
     </row>
-    <row r="401" spans="2:6">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
       <c r="F401" s="4"/>
     </row>
-    <row r="402" spans="2:6">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
       <c r="F402" s="4"/>
     </row>
-    <row r="403" spans="2:6">
+    <row r="403" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
       <c r="F403" s="4"/>
     </row>
-    <row r="404" spans="2:6">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
       <c r="F404" s="4"/>
     </row>
-    <row r="405" spans="2:6">
+    <row r="405" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
       <c r="F405" s="4"/>
     </row>
-    <row r="406" spans="2:6">
+    <row r="406" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
       <c r="F406" s="4"/>
     </row>
-    <row r="407" spans="2:6">
+    <row r="407" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
       <c r="F407" s="4"/>
     </row>
-    <row r="408" spans="2:6">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
       <c r="F408" s="4"/>
     </row>
-    <row r="409" spans="2:6">
+    <row r="409" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
       <c r="F409" s="4"/>
     </row>
-    <row r="410" spans="2:6">
+    <row r="410" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
       <c r="F410" s="4"/>
     </row>
-    <row r="411" spans="2:6">
+    <row r="411" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
       <c r="F411" s="4"/>
     </row>
-    <row r="412" spans="2:6">
+    <row r="412" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
       <c r="F412" s="4"/>
     </row>
-    <row r="413" spans="2:6">
+    <row r="413" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
       <c r="F413" s="4"/>
     </row>
-    <row r="414" spans="2:6">
+    <row r="414" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
       <c r="F414" s="4"/>
     </row>
-    <row r="415" spans="2:6">
+    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
       <c r="F415" s="4"/>
     </row>
-    <row r="416" spans="2:6">
+    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
       <c r="F416" s="4"/>
     </row>
-    <row r="417" spans="2:6">
+    <row r="417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
       <c r="F417" s="4"/>
     </row>
-    <row r="418" spans="2:6">
+    <row r="418" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
       <c r="F418" s="4"/>
     </row>
-    <row r="419" spans="2:6">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
       <c r="F419" s="4"/>
     </row>
-    <row r="420" spans="2:6">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
       <c r="F420" s="4"/>
     </row>
-    <row r="421" spans="2:6">
+    <row r="421" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
       <c r="F421" s="4"/>
     </row>
-    <row r="422" spans="2:6">
+    <row r="422" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
       <c r="F422" s="4"/>
     </row>
-    <row r="423" spans="2:6">
+    <row r="423" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
       <c r="F423" s="4"/>
     </row>
-    <row r="424" spans="2:6">
+    <row r="424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
       <c r="F424" s="4"/>
     </row>
-    <row r="425" spans="2:6">
+    <row r="425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
       <c r="F425" s="4"/>
     </row>
-    <row r="426" spans="2:6">
+    <row r="426" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
       <c r="F426" s="4"/>
     </row>
-    <row r="427" spans="2:6">
+    <row r="427" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
       <c r="F427" s="4"/>
     </row>
-    <row r="428" spans="2:6">
+    <row r="428" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
       <c r="F428" s="4"/>
     </row>
-    <row r="429" spans="2:6">
+    <row r="429" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
       <c r="F429" s="4"/>
     </row>
-    <row r="430" spans="2:6">
+    <row r="430" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
       <c r="F430" s="4"/>
     </row>
-    <row r="431" spans="2:6">
+    <row r="431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
       <c r="F431" s="4"/>
     </row>
-    <row r="432" spans="2:6">
+    <row r="432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
       <c r="F432" s="4"/>
     </row>
-    <row r="433" spans="2:6">
+    <row r="433" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
       <c r="F433" s="4"/>
     </row>
-    <row r="434" spans="2:6">
+    <row r="434" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
       <c r="F434" s="4"/>
     </row>
-    <row r="435" spans="2:6">
+    <row r="435" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
       <c r="F435" s="4"/>
     </row>
-    <row r="436" spans="2:6">
+    <row r="436" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
       <c r="F436" s="4"/>
     </row>
-    <row r="437" spans="2:6">
+    <row r="437" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
       <c r="F437" s="4"/>
     </row>
-    <row r="438" spans="2:6">
+    <row r="438" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
       <c r="F438" s="4"/>
     </row>
-    <row r="439" spans="2:6">
+    <row r="439" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
       <c r="F439" s="4"/>
     </row>
-    <row r="440" spans="2:6">
+    <row r="440" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
       <c r="F440" s="4"/>
     </row>
-    <row r="441" spans="2:6">
+    <row r="441" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
       <c r="F441" s="4"/>
     </row>
-    <row r="442" spans="2:6">
+    <row r="442" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
       <c r="F442" s="4"/>
     </row>
-    <row r="443" spans="2:6">
+    <row r="443" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
       <c r="F443" s="4"/>
     </row>
-    <row r="444" spans="2:6">
+    <row r="444" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
       <c r="F444" s="4"/>
     </row>
-    <row r="445" spans="2:6">
+    <row r="445" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
       <c r="F445" s="4"/>
     </row>
-    <row r="446" spans="2:6">
+    <row r="446" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
       <c r="F446" s="4"/>
     </row>
-    <row r="447" spans="2:6">
+    <row r="447" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
       <c r="F447" s="4"/>
     </row>
-    <row r="448" spans="2:6">
+    <row r="448" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
       <c r="F448" s="4"/>
     </row>
-    <row r="449" spans="2:6">
+    <row r="449" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
       <c r="F449" s="4"/>
     </row>
-    <row r="450" spans="2:6">
+    <row r="450" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
       <c r="F450" s="4"/>
     </row>
-    <row r="451" spans="2:6">
+    <row r="451" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
       <c r="F451" s="4"/>
     </row>
-    <row r="452" spans="2:6">
+    <row r="452" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
       <c r="F452" s="4"/>
     </row>
-    <row r="453" spans="2:6">
+    <row r="453" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
       <c r="F453" s="4"/>
     </row>
-    <row r="454" spans="2:6">
+    <row r="454" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
       <c r="F454" s="4"/>
     </row>
-    <row r="455" spans="2:6">
+    <row r="455" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
       <c r="F455" s="4"/>
     </row>
-    <row r="456" spans="2:6">
+    <row r="456" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
       <c r="F456" s="4"/>
     </row>
-    <row r="457" spans="2:6">
+    <row r="457" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
       <c r="F457" s="4"/>
     </row>
-    <row r="458" spans="2:6">
+    <row r="458" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
       <c r="F458" s="4"/>
     </row>
-    <row r="459" spans="2:6">
+    <row r="459" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
       <c r="F459" s="4"/>
     </row>
-    <row r="460" spans="2:6">
+    <row r="460" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
       <c r="F460" s="4"/>
     </row>
-    <row r="461" spans="2:6">
+    <row r="461" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
       <c r="F461" s="4"/>
     </row>
-    <row r="462" spans="2:6">
+    <row r="462" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
       <c r="F462" s="4"/>
     </row>
-    <row r="463" spans="2:6">
+    <row r="463" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
       <c r="F463" s="4"/>
     </row>
-    <row r="464" spans="2:6">
+    <row r="464" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
       <c r="F464" s="4"/>
     </row>
-    <row r="465" spans="2:6">
+    <row r="465" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
       <c r="F465" s="4"/>
     </row>
-    <row r="466" spans="2:6">
+    <row r="466" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
       <c r="F466" s="4"/>
     </row>
-    <row r="467" spans="2:6">
+    <row r="467" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
       <c r="F467" s="4"/>
     </row>
-    <row r="468" spans="2:6">
+    <row r="468" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
       <c r="F468" s="4"/>
     </row>
-    <row r="469" spans="2:6">
+    <row r="469" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
       <c r="F469" s="4"/>
     </row>
-    <row r="470" spans="2:6">
+    <row r="470" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
       <c r="F470" s="4"/>
     </row>
-    <row r="471" spans="2:6">
+    <row r="471" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
       <c r="F471" s="4"/>
     </row>
-    <row r="472" spans="2:6">
+    <row r="472" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
       <c r="F472" s="4"/>
     </row>
-    <row r="473" spans="2:6">
+    <row r="473" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
       <c r="F473" s="4"/>
     </row>
-    <row r="474" spans="2:6">
+    <row r="474" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
       <c r="F474" s="4"/>
     </row>
-    <row r="475" spans="2:6">
+    <row r="475" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
       <c r="F475" s="4"/>
     </row>
-    <row r="476" spans="2:6">
+    <row r="476" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
       <c r="F476" s="4"/>
     </row>
-    <row r="477" spans="2:6">
+    <row r="477" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
       <c r="F477" s="4"/>
     </row>
-    <row r="478" spans="2:6">
+    <row r="478" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
       <c r="F478" s="4"/>
     </row>
-    <row r="479" spans="2:6">
+    <row r="479" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
       <c r="F479" s="4"/>
@@ -4687,36 +4777,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.125" customWidth="1"/>
     <col min="2" max="2" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8214D843-6E44-4384-A76E-0288D0A398E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347026B3-A2A5-4C94-BF34-998566DDF0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="191">
   <si>
     <t>type</t>
   </si>
@@ -299,12 +299,6 @@
     <t>HOUNYOVI Ayaovi</t>
   </si>
   <si>
-    <t>NOUSSOUGNON Kokou</t>
-  </si>
-  <si>
-    <t>SOH Atafembou</t>
-  </si>
-  <si>
     <t>yesNo</t>
   </si>
   <si>
@@ -467,12 +461,6 @@
     <t>Négatif</t>
   </si>
   <si>
-    <t>Trace.non.hemolysee</t>
-  </si>
-  <si>
-    <t>Trace non hémolysée</t>
-  </si>
-  <si>
     <t>Trace.hemolysee</t>
   </si>
   <si>
@@ -506,30 +494,18 @@
     <t>subdistrict_list= ${p_usp}</t>
   </si>
   <si>
-    <t>ABAYE Elom</t>
-  </si>
-  <si>
     <t>ABDOU-KERIM Agueregna</t>
   </si>
   <si>
-    <t>ADABRA Hélène</t>
-  </si>
-  <si>
     <t>ADJAGODO Gadiel</t>
   </si>
   <si>
-    <t>ADJENDA Eke</t>
-  </si>
-  <si>
     <t>AFANOU Kokou M</t>
   </si>
   <si>
     <t>AGBOZO Senyo</t>
   </si>
   <si>
-    <t>AKOBI  Komi</t>
-  </si>
-  <si>
     <t>AKUTSA Kafui</t>
   </si>
   <si>
@@ -539,66 +515,33 @@
     <t>BADJASSEM Gloria Diyane</t>
   </si>
   <si>
-    <t>BAKOLTINA Disrama Denise</t>
-  </si>
-  <si>
     <t>BATEBAWI Raphaël</t>
   </si>
   <si>
-    <t>DJAMAH Prosper</t>
-  </si>
-  <si>
-    <t>DJOBO Annissah</t>
-  </si>
-  <si>
     <t>DOUMONGUE Tibanguebé</t>
   </si>
   <si>
     <t>EKAHOHO Yaovi</t>
   </si>
   <si>
-    <t>GBOGBATSE Komi Mensa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNANLABA Pyabalo </t>
-  </si>
-  <si>
     <t>KOKAN Faïzat</t>
   </si>
   <si>
     <t>KUTOATI Abla</t>
   </si>
   <si>
-    <t xml:space="preserve">LOGO Kokou </t>
-  </si>
-  <si>
     <t>MONTANT Minyo Ega Sossa</t>
   </si>
   <si>
-    <t xml:space="preserve">NAKOME Bamouni </t>
-  </si>
-  <si>
-    <t>PORO Kpatcha Edjareguew</t>
-  </si>
-  <si>
     <t>SAGOA Djamsa</t>
   </si>
   <si>
-    <t>SEDJRO Afantolo</t>
-  </si>
-  <si>
-    <t>SINGO ATTAH</t>
-  </si>
-  <si>
     <t>SOLI Lontassam</t>
   </si>
   <si>
     <t>SOTOU Novinyo</t>
   </si>
   <si>
-    <t>TAGBA Atna Edi</t>
-  </si>
-  <si>
     <t>TCHAGBELE Wanikougnon</t>
   </si>
   <si>
@@ -623,43 +566,91 @@
     <t>select_one recorders</t>
   </si>
   <si>
-    <t>NDATO Kossi</t>
-  </si>
-  <si>
     <t>Le résultat est positif, l'urine doit être conservé.</t>
   </si>
   <si>
     <t>if((${p_grading} = '+' or ${p_grading} = '++' or ${p_grading} = '+++' or ${p_grading} = 'Trace.hemolysee'), . = 'Oui', true())</t>
   </si>
   <si>
-    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V3</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202309_2_child_v3</t>
-  </si>
-  <si>
-    <t>select_one yesNo</t>
-  </si>
-  <si>
-    <t>p_control</t>
-  </si>
-  <si>
-    <t>La bandelette est-elle retenue pour le contrôle qualité</t>
-  </si>
-  <si>
-    <t>p_grading2</t>
-  </si>
-  <si>
-    <t>Contrôle de Graduation de la microhématurie</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'A.donne'  and ${p_collected_urine} = 'Oui' and ${p_control} = 'Oui'</t>
-  </si>
-  <si>
     <t xml:space="preserve">L'urine  est-elle conservée pour la filtration de l’urine? </t>
   </si>
   <si>
     <t>Il s'agit de l'urine de bandellete et/ou de l'urine macroscopiquement positive.</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_2_child_v4</t>
+  </si>
+  <si>
+    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V4</t>
+  </si>
+  <si>
+    <t>L’urine est-elle macroscopiquement hématurique</t>
+  </si>
+  <si>
+    <t>p_macroscopique_hemat</t>
+  </si>
+  <si>
+    <t>ABAYE Kokou Mawulom</t>
+  </si>
+  <si>
+    <t>ADABRA Abra Hélène</t>
+  </si>
+  <si>
+    <t>ADJINDA Eké</t>
+  </si>
+  <si>
+    <t>AKOBI Komi</t>
+  </si>
+  <si>
+    <t>BAKOLITANA Disrama Denise</t>
+  </si>
+  <si>
+    <t>DJAMAH Yaovi Prosper</t>
+  </si>
+  <si>
+    <t>DJOBO Anissah</t>
+  </si>
+  <si>
+    <t>FONVI Akakpo</t>
+  </si>
+  <si>
+    <t>GBOGBATSE</t>
+  </si>
+  <si>
+    <t>GNANLABA Pyabalo</t>
+  </si>
+  <si>
+    <t>LACK Fiali,</t>
+  </si>
+  <si>
+    <t>LOGO Kokou Dodji</t>
+  </si>
+  <si>
+    <t>N’DATO Kossi</t>
+  </si>
+  <si>
+    <t>NAKOME Bamouni</t>
+  </si>
+  <si>
+    <t>NOUSSOUGNON Kokou S.</t>
+  </si>
+  <si>
+    <t>PORO Kpatcha Edjaréguéw</t>
+  </si>
+  <si>
+    <t>SEDJRO Afantolou</t>
+  </si>
+  <si>
+    <t>SINGO Kodjo ATTAH</t>
+  </si>
+  <si>
+    <t>SOH Aféyibou</t>
+  </si>
+  <si>
+    <t>TAGBA Atna-Edi M.</t>
+  </si>
+  <si>
+    <t>YAKPA Kossi</t>
   </si>
 </sst>
 </file>
@@ -733,7 +724,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,12 +747,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
         <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -833,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -916,22 +901,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1208,13 +1177,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD16"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1242,7 @@
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>12</v>
@@ -1320,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>18</v>
@@ -1360,7 +1329,7 @@
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="17" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1420,10 +1389,10 @@
       <c r="D8" s="10"/>
       <c r="E8" s="9"/>
       <c r="F8" s="26" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>32</v>
@@ -1438,18 +1407,18 @@
         <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
       <c r="F9" s="26" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>32</v>
@@ -1565,13 +1534,13 @@
     </row>
     <row r="14" spans="1:12" s="17" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
@@ -1585,27 +1554,27 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
+    <row r="15" spans="1:12" s="17" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" s="17" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -1615,17 +1584,17 @@
         <v>52</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>53</v>
@@ -1637,69 +1606,65 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" s="17" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
       <c r="H18" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="H19" s="8"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -1707,14 +1672,12 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>61</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C20" s="22"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -1726,11 +1689,11 @@
       <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>62</v>
+      <c r="A21" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="12"/>
@@ -1743,37 +1706,19 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G479"/>
+  <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1811,10 +1756,10 @@
         <v>71</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="15"/>
@@ -1826,10 +1771,10 @@
         <v>71</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="15"/>
@@ -1841,10 +1786,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="15"/>
@@ -1856,10 +1801,10 @@
         <v>71</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="15"/>
@@ -1871,10 +1816,10 @@
         <v>71</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="15"/>
@@ -1886,10 +1831,10 @@
         <v>71</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="15"/>
@@ -1901,10 +1846,10 @@
         <v>71</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="15"/>
@@ -1916,10 +1861,10 @@
         <v>71</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="15"/>
@@ -1931,10 +1876,10 @@
         <v>71</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="15"/>
@@ -1946,10 +1891,10 @@
         <v>71</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="15"/>
@@ -1961,10 +1906,10 @@
         <v>71</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="15"/>
@@ -1976,10 +1921,10 @@
         <v>71</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="15"/>
@@ -1991,10 +1936,10 @@
         <v>71</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="15"/>
@@ -2006,10 +1951,10 @@
         <v>71</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="15"/>
@@ -2021,10 +1966,10 @@
         <v>71</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="15"/>
@@ -2036,10 +1981,10 @@
         <v>71</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="15"/>
@@ -2051,10 +1996,10 @@
         <v>71</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="15"/>
@@ -2066,10 +2011,10 @@
         <v>71</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="15"/>
@@ -2081,10 +2026,10 @@
         <v>71</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="15"/>
@@ -2096,10 +2041,10 @@
         <v>71</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="15"/>
@@ -2111,10 +2056,10 @@
         <v>71</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="15"/>
@@ -2126,10 +2071,10 @@
         <v>71</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="15"/>
@@ -2141,10 +2086,10 @@
         <v>71</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="15"/>
@@ -2156,10 +2101,10 @@
         <v>71</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
@@ -2186,10 +2131,10 @@
         <v>71</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="29"/>
@@ -2201,10 +2146,10 @@
         <v>71</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="29"/>
@@ -2216,10 +2161,10 @@
         <v>71</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2231,10 +2176,10 @@
         <v>71</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
@@ -2246,10 +2191,10 @@
         <v>71</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
@@ -2261,10 +2206,10 @@
         <v>71</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="29"/>
@@ -2276,10 +2221,10 @@
         <v>71</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
@@ -2291,10 +2236,10 @@
         <v>71</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -2306,10 +2251,10 @@
         <v>71</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="29"/>
@@ -2321,10 +2266,10 @@
         <v>71</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="29"/>
@@ -2336,10 +2281,10 @@
         <v>71</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="29"/>
@@ -2347,395 +2292,415 @@
       <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="A38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>189</v>
+      </c>
       <c r="D38" s="28"/>
       <c r="E38" s="29"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>75</v>
+      <c r="A39" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>76</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>75</v>
+      <c r="A40" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" s="28"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>79</v>
+        <v>73</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>87</v>
+      <c r="C46" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="C62" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B64" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
+      <c r="C68" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="5" t="s">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>126</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>126</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>134</v>
+        <v>124</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>135</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="15"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="15"/>
+      <c r="A74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
@@ -2794,18 +2759,22 @@
       <c r="E83" s="15"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B84"/>
-      <c r="C84"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="15"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="15"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="B86"/>
+      <c r="C86"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
@@ -3257,15 +3226,15 @@
       <c r="C176" s="4"/>
       <c r="E176" s="4"/>
     </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="E177" s="4"/>
+    </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
-      <c r="F178" s="4"/>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="F179" s="4"/>
+      <c r="E178" s="4"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="4"/>
@@ -4766,6 +4735,16 @@
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
       <c r="F479" s="4"/>
+    </row>
+    <row r="480" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B480" s="4"/>
+      <c r="C480" s="4"/>
+      <c r="F480" s="4"/>
+    </row>
+    <row r="481" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B481" s="4"/>
+      <c r="C481" s="4"/>
+      <c r="F481" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4778,7 +4757,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4789,24 +4768,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347026B3-A2A5-4C94-BF34-998566DDF0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED79683A-85D0-481D-97AB-E487D7AE2953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -239,9 +239,6 @@
     <t>p_urine_conserve</t>
   </si>
   <si>
-    <t>${p_consent} = 'A.donne' and ${p_collected_urine} = 'Oui' and ${p_grading} != 'Negatif'</t>
-  </si>
-  <si>
     <t>p_ending_survey_note</t>
   </si>
   <si>
@@ -566,24 +563,12 @@
     <t>select_one recorders</t>
   </si>
   <si>
-    <t>Le résultat est positif, l'urine doit être conservé.</t>
-  </si>
-  <si>
-    <t>if((${p_grading} = '+' or ${p_grading} = '++' or ${p_grading} = '+++' or ${p_grading} = 'Trace.hemolysee'), . = 'Oui', true())</t>
-  </si>
-  <si>
     <t xml:space="preserve">L'urine  est-elle conservée pour la filtration de l’urine? </t>
   </si>
   <si>
     <t>Il s'agit de l'urine de bandellete et/ou de l'urine macroscopiquement positive.</t>
   </si>
   <si>
-    <t>tg_sch_sth_impact_202309_2_child_v4</t>
-  </si>
-  <si>
-    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V4</t>
-  </si>
-  <si>
     <t>L’urine est-elle macroscopiquement hématurique</t>
   </si>
   <si>
@@ -651,6 +636,21 @@
   </si>
   <si>
     <t>YAKPA Kossi</t>
+  </si>
+  <si>
+    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V4.1</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_2_child_v4_1</t>
+  </si>
+  <si>
+    <t>if((${p_grading} = 'Negatif' and ${p_macroscopique_hemat} = 'Non'), . = 'Oui', true())</t>
+  </si>
+  <si>
+    <t>L'urine doit être conservé parce que macroscopiquement  négative  et de graduation  négative</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'A.donne' and ${p_collected_urine} = 'Oui' and ${p_grading} = 'Negatif' and ${p_macroscopique_hemat} = 'Non'</t>
   </si>
 </sst>
 </file>
@@ -1179,11 +1179,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>12</v>
@@ -1289,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>18</v>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="17" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1389,10 +1389,10 @@
       <c r="D8" s="10"/>
       <c r="E8" s="9"/>
       <c r="F8" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="30" t="s">
         <v>159</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>160</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>32</v>
@@ -1407,18 +1407,18 @@
         <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
       <c r="F9" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>32</v>
@@ -1537,10 +1537,10 @@
         <v>33</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
@@ -1576,7 +1576,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="17" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="17" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
@@ -1584,20 +1584,20 @@
         <v>52</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="32" t="s">
@@ -1611,17 +1611,17 @@
         <v>22</v>
       </c>
       <c r="B17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>54</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>55</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
       <c r="H17" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -1633,17 +1633,17 @@
         <v>22</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>58</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
       <c r="H18" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -1655,10 +1655,10 @@
         <v>34</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>62</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>63</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="12"/>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>65</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="12"/>
@@ -1716,9 +1716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD50"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1730,7 +1730,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -1739,27 +1739,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="15"/>
@@ -1768,13 +1768,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="15"/>
@@ -1783,13 +1783,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="15"/>
@@ -1798,13 +1798,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="15"/>
@@ -1813,13 +1813,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="15"/>
@@ -1828,13 +1828,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="15"/>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="15"/>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="15"/>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="15"/>
@@ -1888,13 +1888,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="15"/>
@@ -1903,13 +1903,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="15"/>
@@ -1918,13 +1918,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="15"/>
@@ -1933,13 +1933,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="15"/>
@@ -1948,13 +1948,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="15"/>
@@ -1963,13 +1963,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="15"/>
@@ -1978,13 +1978,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="15"/>
@@ -1993,13 +1993,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="15"/>
@@ -2008,13 +2008,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="15"/>
@@ -2023,13 +2023,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="15"/>
@@ -2038,13 +2038,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="15"/>
@@ -2053,13 +2053,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="C22" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="15"/>
@@ -2068,13 +2068,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="15"/>
@@ -2083,13 +2083,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="15"/>
@@ -2098,13 +2098,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
@@ -2128,13 +2128,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="29"/>
@@ -2143,13 +2143,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="29"/>
@@ -2158,13 +2158,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2173,13 +2173,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
@@ -2188,13 +2188,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
@@ -2203,13 +2203,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="29"/>
@@ -2218,13 +2218,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
@@ -2233,13 +2233,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -2248,13 +2248,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="29"/>
@@ -2263,13 +2263,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="29"/>
@@ -2278,13 +2278,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="29"/>
@@ -2293,13 +2293,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="29"/>
@@ -2308,13 +2308,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -2323,13 +2323,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="29"/>
@@ -2347,24 +2347,24 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="C42" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2374,332 +2374,332 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="C45" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="C47" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="C49" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B51" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B52" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B56" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="C58" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="C61" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B62" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B64" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B65" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4757,7 +4757,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4768,24 +4768,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED79683A-85D0-481D-97AB-E487D7AE2953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42894114-F6B0-4EC5-805E-0052DD49F4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -638,19 +638,19 @@
     <t>YAKPA Kossi</t>
   </si>
   <si>
-    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V4.1</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202309_2_child_v4_1</t>
-  </si>
-  <si>
-    <t>if((${p_grading} = 'Negatif' and ${p_macroscopique_hemat} = 'Non'), . = 'Oui', true())</t>
-  </si>
-  <si>
-    <t>L'urine doit être conservé parce que macroscopiquement  négative  et de graduation  négative</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'A.donne' and ${p_collected_urine} = 'Oui' and ${p_grading} = 'Negatif' and ${p_macroscopique_hemat} = 'Non'</t>
+    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V4.2</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_2_child_v4_2</t>
+  </si>
+  <si>
+    <t>L'urine doit être conservé parce que macroscopiquement  positive  et de graduation  positive</t>
+  </si>
+  <si>
+    <t>if((${p_grading} = '+' or ${p_grading} = '++' or ${p_grading} = '+++' or ${p_grading} = 'Trace.hemolysee' or  ${p_macroscopique_hemat} = 'Oui'), . = 'Oui', true())</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'A.donne' and ${p_collected_urine} = 'Oui' and (${p_grading} = '+' or ${p_grading} = '++' or ${p_grading} = '+++' or ${p_grading} = 'Trace.hemolysee' or ${p_macroscopique_hemat} = 'Oui')</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1183,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1576,7 +1576,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="17" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="17" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
@@ -1591,10 +1591,10 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>188</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>189</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>190</v>
@@ -1718,7 +1718,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4757,7 +4757,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42894114-F6B0-4EC5-805E-0052DD49F4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3D0CDE-F1BA-480D-A986-076072A66CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -554,9 +554,6 @@
     <t>Les deux QR code scanné doivent être les mêmes</t>
   </si>
   <si>
-    <t>regex(.,'^(MO.?|SOT|TCH|TCH|BAS|AGO|AKE|AMO|DAN|HAH|KLO|KPE|MOY|WAW)_\d{4}$') and (substr(${p_district}, 0, 3) = substr(., 0, 3) or substr(${p_district}, 0, 3) = 'MO')</t>
-  </si>
-  <si>
     <t>Le format du QR Code est incorect ou vous utiliser le QR Code d'un autre district</t>
   </si>
   <si>
@@ -651,6 +648,10 @@
   </si>
   <si>
     <t>${p_consent} = 'A.donne' and ${p_collected_urine} = 'Oui' and (${p_grading} = '+' or ${p_grading} = '++' or ${p_grading} = '+++' or ${p_grading} = 'Trace.hemolysee' or ${p_macroscopique_hemat} = 'Oui')</t>
+  </si>
+  <si>
+    <t>regex(.,'^(MO.?|SOT|TCH|TCH|BAS|AGO|AKE|AMO|DAN|HAH|KLO|KPE|MOY|WAW)_\d{4}$') and (substr(${p_district}, 0, 3) = substr(., 0, 3) or substr(${p_district}, 0, 3) = 'MO')
+or (regex(.,'^(MOM)_\d{4}$') and ${p_district} = 'MOYEN-MONO')</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1181,10 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1243,7 @@
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>12</v>
@@ -1376,7 +1377,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" s="17" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="17" customFormat="1" ht="252" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
@@ -1389,10 +1390,10 @@
       <c r="D8" s="10"/>
       <c r="E8" s="9"/>
       <c r="F8" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="30" t="s">
         <v>158</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>159</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>32</v>
@@ -1537,10 +1538,10 @@
         <v>33</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
@@ -1584,20 +1585,20 @@
         <v>52</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>162</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="32" t="s">
@@ -1717,7 +1718,7 @@
   <dimension ref="A1:G481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -1756,10 +1757,10 @@
         <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="15"/>
@@ -1786,10 +1787,10 @@
         <v>70</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="15"/>
@@ -1816,10 +1817,10 @@
         <v>70</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="15"/>
@@ -1861,10 +1862,10 @@
         <v>70</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="15"/>
@@ -1921,10 +1922,10 @@
         <v>70</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="15"/>
@@ -1951,10 +1952,10 @@
         <v>70</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="15"/>
@@ -1966,10 +1967,10 @@
         <v>70</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="15"/>
@@ -2011,10 +2012,10 @@
         <v>70</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="15"/>
@@ -2026,10 +2027,10 @@
         <v>70</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="15"/>
@@ -2041,10 +2042,10 @@
         <v>70</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="15"/>
@@ -2101,10 +2102,10 @@
         <v>70</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
@@ -2116,10 +2117,10 @@
         <v>70</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
@@ -2146,10 +2147,10 @@
         <v>70</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="29"/>
@@ -2161,10 +2162,10 @@
         <v>70</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2176,10 +2177,10 @@
         <v>70</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
@@ -2191,10 +2192,10 @@
         <v>70</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
@@ -2221,10 +2222,10 @@
         <v>70</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
@@ -2236,10 +2237,10 @@
         <v>70</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -2251,10 +2252,10 @@
         <v>70</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="29"/>
@@ -2296,10 +2297,10 @@
         <v>70</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="29"/>
@@ -2326,10 +2327,10 @@
         <v>70</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="29"/>
@@ -4779,10 +4780,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>186</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>134</v>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3D0CDE-F1BA-480D-A986-076072A66CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D3E203-C324-41F5-BA83-B38BF3256DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,7 +651,7 @@
   </si>
   <si>
     <t>regex(.,'^(MO.?|SOT|TCH|TCH|BAS|AGO|AKE|AMO|DAN|HAH|KLO|KPE|MOY|WAW)_\d{4}$') and (substr(${p_district}, 0, 3) = substr(., 0, 3) or substr(${p_district}, 0, 3) = 'MO')
-or (regex(.,'^(MOM)_\d{4}$') and ${p_district} = 'MOYEN-MONO')</t>
+or (regex(.,'^(MOM)_\d{4}$') and ${p_district} = 'MOYEN-MONO') or (regex(.,'^(TCB)_\d{4}$') and ${p_district} = 'TCHAMBA')</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
@@ -1377,7 +1377,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" s="17" customFormat="1" ht="252" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="17" customFormat="1" ht="330.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>29</v>
       </c>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_2_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D3E203-C324-41F5-BA83-B38BF3256DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54654382-01B0-4992-B6F1-07F30CCD234A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -635,12 +635,6 @@
     <t>YAKPA Kossi</t>
   </si>
   <si>
-    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V4.2</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202309_2_child_v4_2</t>
-  </si>
-  <si>
     <t>L'urine doit être conservé parce que macroscopiquement  positive  et de graduation  positive</t>
   </si>
   <si>
@@ -650,8 +644,13 @@
     <t>${p_consent} = 'A.donne' and ${p_collected_urine} = 'Oui' and (${p_grading} = '+' or ${p_grading} = '++' or ${p_grading} = '+++' or ${p_grading} = 'Trace.hemolysee' or ${p_macroscopique_hemat} = 'Oui')</t>
   </si>
   <si>
-    <t>regex(.,'^(MO.?|SOT|TCH|TCH|BAS|AGO|AKE|AMO|DAN|HAH|KLO|KPE|MOY|WAW)_\d{4}$') and (substr(${p_district}, 0, 3) = substr(., 0, 3) or substr(${p_district}, 0, 3) = 'MO')
-or (regex(.,'^(MOM)_\d{4}$') and ${p_district} = 'MOYEN-MONO') or (regex(.,'^(TCB)_\d{4}$') and ${p_district} = 'TCHAMBA')</t>
+    <t>(2023 Sept) - 2. SCH/STH – Enrôlement V4.3</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_2_child_v4_3</t>
+  </si>
+  <si>
+    <t>regex(., '.*_\d{4-6}')</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1376,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" s="17" customFormat="1" ht="330.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="17" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
@@ -1592,13 +1591,13 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G16" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="32" t="s">
@@ -4758,7 +4757,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4780,10 +4779,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
         <v>134</v>
